--- a/data/pet-store-data.xlsx
+++ b/data/pet-store-data.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11895" windowHeight="1800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cart_items" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1:F3"/>
 </workbook>
 </file>
 
@@ -1873,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1992,7 +1993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2005,7 +2006,7 @@
     <col min="8" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" thickBot="1">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2043,7 +2044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="44.25" thickBot="1">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="44.25" thickBot="1">
+    <row r="3" spans="1:12" ht="30" thickBot="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2119,7 +2120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="58.5" thickBot="1">
+    <row r="4" spans="1:12" ht="30" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="58.5" thickBot="1">
+    <row r="5" spans="1:12" ht="30" thickBot="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="44.25" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2233,7 +2234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="44.25" thickBot="1">
+    <row r="7" spans="1:12" ht="30" thickBot="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="44.25" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2309,7 +2310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="44.25" thickBot="1">
+    <row r="9" spans="1:12" ht="30" thickBot="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="58.5" thickBot="1">
+    <row r="10" spans="1:12" ht="30" thickBot="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="58.5" thickBot="1">
+    <row r="11" spans="1:12" ht="30" thickBot="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="58.5" thickBot="1">
+    <row r="12" spans="1:12" ht="30" thickBot="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="44.25" thickBot="1">
+    <row r="13" spans="1:12" ht="30" thickBot="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="44.25" thickBot="1">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="44.25" thickBot="1">
+    <row r="15" spans="1:12" ht="30" thickBot="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="44.25" thickBot="1">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="44.25" thickBot="1">
+    <row r="17" spans="1:12" ht="30" thickBot="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2651,7 +2652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="44.25" thickBot="1">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2689,7 +2690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="44.25" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="44.25" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="44.25" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="44.25" thickBot="1">
+    <row r="22" spans="1:12" ht="30" thickBot="1">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="58.5" thickBot="1">
+    <row r="23" spans="1:12" ht="30" thickBot="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="44.25" thickBot="1">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2917,7 +2918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="58.5" thickBot="1">
+    <row r="25" spans="1:12" ht="30" thickBot="1">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="58.5" thickBot="1">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="58.5" thickBot="1">
+    <row r="27" spans="1:12" ht="30" thickBot="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="44.25" thickBot="1">
+    <row r="28" spans="1:12" ht="30" thickBot="1">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="58.5" thickBot="1">
+    <row r="29" spans="1:12" ht="30" thickBot="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="44.25" thickBot="1">
+    <row r="30" spans="1:12" ht="30" thickBot="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="58.5" thickBot="1">
+    <row r="31" spans="1:12" ht="30" thickBot="1">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="44.25" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="58.5" thickBot="1">
+    <row r="33" spans="1:12" ht="30" thickBot="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="44.25" thickBot="1">
+    <row r="34" spans="1:12" ht="30" thickBot="1">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="58.5" thickBot="1">
+    <row r="35" spans="1:12" ht="30" thickBot="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="58.5" thickBot="1">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="44.25" thickBot="1">
+    <row r="37" spans="1:12" ht="30" thickBot="1">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="44.25" thickBot="1">
+    <row r="38" spans="1:12" ht="30" thickBot="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="58.5" thickBot="1">
+    <row r="39" spans="1:12" ht="30" thickBot="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="44.25" thickBot="1">
+    <row r="40" spans="1:12" ht="15.75" thickBot="1">
       <c r="A40" s="7">
         <v>39</v>
       </c>
@@ -3525,7 +3526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="44.25" thickBot="1">
+    <row r="41" spans="1:12" ht="30" thickBot="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3563,7 +3564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="58.5" thickBot="1">
+    <row r="42" spans="1:12" ht="30" thickBot="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="44.25" thickBot="1">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1">
       <c r="A43" s="7">
         <v>42</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="58.5" thickBot="1">
+    <row r="44" spans="1:12" ht="30" thickBot="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3677,7 +3678,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="58.5" thickBot="1">
+    <row r="45" spans="1:12" ht="30" thickBot="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="44.25" thickBot="1">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1">
       <c r="A46" s="7">
         <v>45</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="58.5" thickBot="1">
+    <row r="47" spans="1:12" ht="30" thickBot="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="44.25" thickBot="1">
+    <row r="48" spans="1:12" ht="15.75" thickBot="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="44.25" thickBot="1">
+    <row r="49" spans="1:12" ht="30" thickBot="1">
       <c r="A49" s="7">
         <v>48</v>
       </c>
@@ -3867,7 +3868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="44.25" thickBot="1">
+    <row r="50" spans="1:12" ht="30" thickBot="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="44.25" thickBot="1">
+    <row r="51" spans="1:12" ht="30" thickBot="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>

--- a/data/pet-store-data.xlsx
+++ b/data/pet-store-data.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11895" windowHeight="1800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11895" windowHeight="2265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cart_items" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:F3"/>
+  <oleSize ref="A1:F4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="678">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1411,12 +1411,652 @@
   </si>
   <si>
     <t>https://petstore.octoperf.com/actions/Catalog.action?viewItem=&amp;itemId=EST-13</t>
+  </si>
+  <si>
+    <t>d4384</t>
+  </si>
+  <si>
+    <t>4afa0</t>
+  </si>
+  <si>
+    <t>japanese</t>
+  </si>
+  <si>
+    <t>BIRDS</t>
+  </si>
+  <si>
+    <t>8bf73</t>
+  </si>
+  <si>
+    <t>DOGS</t>
+  </si>
+  <si>
+    <t>fb910</t>
+  </si>
+  <si>
+    <t>englis</t>
+  </si>
+  <si>
+    <t>1f911</t>
+  </si>
+  <si>
+    <t>FISH</t>
+  </si>
+  <si>
+    <t>5fc1a</t>
+  </si>
+  <si>
+    <t>CATS</t>
+  </si>
+  <si>
+    <t>77147</t>
+  </si>
+  <si>
+    <t>56497</t>
+  </si>
+  <si>
+    <t>67d15</t>
+  </si>
+  <si>
+    <t>9f550</t>
+  </si>
+  <si>
+    <t>dd54c</t>
+  </si>
+  <si>
+    <t>REPTILES</t>
+  </si>
+  <si>
+    <t>04657</t>
+  </si>
+  <si>
+    <t>cd1e6</t>
+  </si>
+  <si>
+    <t>ec967</t>
+  </si>
+  <si>
+    <t>fc28d</t>
+  </si>
+  <si>
+    <t>1323f</t>
+  </si>
+  <si>
+    <t>a569b</t>
+  </si>
+  <si>
+    <t>77810</t>
+  </si>
+  <si>
+    <t>7b417</t>
+  </si>
+  <si>
+    <t>ef540</t>
+  </si>
+  <si>
+    <t>9014a</t>
+  </si>
+  <si>
+    <t>2c8f9</t>
+  </si>
+  <si>
+    <t>289ad</t>
+  </si>
+  <si>
+    <t>ddc55</t>
+  </si>
+  <si>
+    <t>ee0d9</t>
+  </si>
+  <si>
+    <t>a8bad</t>
+  </si>
+  <si>
+    <t>f80f9</t>
+  </si>
+  <si>
+    <t>36e63</t>
+  </si>
+  <si>
+    <t>ef19a</t>
+  </si>
+  <si>
+    <t>6c027</t>
+  </si>
+  <si>
+    <t>ddcee</t>
+  </si>
+  <si>
+    <t>3405c</t>
+  </si>
+  <si>
+    <t>65762</t>
+  </si>
+  <si>
+    <t>c78ec</t>
+  </si>
+  <si>
+    <t>f618f</t>
+  </si>
+  <si>
+    <t>0fbeb</t>
+  </si>
+  <si>
+    <t>51319</t>
+  </si>
+  <si>
+    <t>afe57</t>
+  </si>
+  <si>
+    <t>cc6e5</t>
+  </si>
+  <si>
+    <t>99329</t>
+  </si>
+  <si>
+    <t>bfbec</t>
+  </si>
+  <si>
+    <t>82563</t>
+  </si>
+  <si>
+    <t>4d9fe</t>
+  </si>
+  <si>
+    <t>edb89</t>
+  </si>
+  <si>
+    <t>8c565</t>
+  </si>
+  <si>
+    <t>34942</t>
+  </si>
+  <si>
+    <t>f3cc8</t>
+  </si>
+  <si>
+    <t>2adb9</t>
+  </si>
+  <si>
+    <t>635e4</t>
+  </si>
+  <si>
+    <t>15a55</t>
+  </si>
+  <si>
+    <t>c30a3</t>
+  </si>
+  <si>
+    <t>b30df</t>
+  </si>
+  <si>
+    <t>143ad</t>
+  </si>
+  <si>
+    <t>66fd6</t>
+  </si>
+  <si>
+    <t>690a5</t>
+  </si>
+  <si>
+    <t>dca32</t>
+  </si>
+  <si>
+    <t>5b898</t>
+  </si>
+  <si>
+    <t>5c7c1</t>
+  </si>
+  <si>
+    <t>b164a</t>
+  </si>
+  <si>
+    <t>a853c</t>
+  </si>
+  <si>
+    <t>834e2</t>
+  </si>
+  <si>
+    <t>09280</t>
+  </si>
+  <si>
+    <t>a93d9</t>
+  </si>
+  <si>
+    <t>28b58</t>
+  </si>
+  <si>
+    <t>c13d7</t>
+  </si>
+  <si>
+    <t>c0e92</t>
+  </si>
+  <si>
+    <t>f018d</t>
+  </si>
+  <si>
+    <t>d87d7</t>
+  </si>
+  <si>
+    <t>2156d</t>
+  </si>
+  <si>
+    <t>99ab0</t>
+  </si>
+  <si>
+    <t>7c0b6</t>
+  </si>
+  <si>
+    <t>b12fc</t>
+  </si>
+  <si>
+    <t>6c08a</t>
+  </si>
+  <si>
+    <t>b0f40</t>
+  </si>
+  <si>
+    <t>5f954</t>
+  </si>
+  <si>
+    <t>2dcbd</t>
+  </si>
+  <si>
+    <t>0f08b</t>
+  </si>
+  <si>
+    <t>f343c</t>
+  </si>
+  <si>
+    <t>a9c40</t>
+  </si>
+  <si>
+    <t>28528</t>
+  </si>
+  <si>
+    <t>6cf56</t>
+  </si>
+  <si>
+    <t>615af</t>
+  </si>
+  <si>
+    <t>379fd</t>
+  </si>
+  <si>
+    <t>27083</t>
+  </si>
+  <si>
+    <t>cda79</t>
+  </si>
+  <si>
+    <t>9f833</t>
+  </si>
+  <si>
+    <t>643b4</t>
+  </si>
+  <si>
+    <t>263b0</t>
+  </si>
+  <si>
+    <t>489e0</t>
+  </si>
+  <si>
+    <t>333ba</t>
+  </si>
+  <si>
+    <t>935cf</t>
+  </si>
+  <si>
+    <t>c4ead</t>
+  </si>
+  <si>
+    <t>239b1</t>
+  </si>
+  <si>
+    <t>0179c</t>
+  </si>
+  <si>
+    <t>3ec3f</t>
+  </si>
+  <si>
+    <t>aa7a7</t>
+  </si>
+  <si>
+    <t>13273</t>
+  </si>
+  <si>
+    <t>75141</t>
+  </si>
+  <si>
+    <t>95e32</t>
+  </si>
+  <si>
+    <t>1fba4</t>
+  </si>
+  <si>
+    <t>e3324</t>
+  </si>
+  <si>
+    <t>655e3</t>
+  </si>
+  <si>
+    <t>6e3a5</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>074de</t>
+  </si>
+  <si>
+    <t>97de4</t>
+  </si>
+  <si>
+    <t>5c6b1</t>
+  </si>
+  <si>
+    <t>1c0f4</t>
+  </si>
+  <si>
+    <t>2b8e4</t>
+  </si>
+  <si>
+    <t>9a04d</t>
+  </si>
+  <si>
+    <t>497f4</t>
+  </si>
+  <si>
+    <t>56033</t>
+  </si>
+  <si>
+    <t>a764d</t>
+  </si>
+  <si>
+    <t>ef077</t>
+  </si>
+  <si>
+    <t>e1ae9</t>
+  </si>
+  <si>
+    <t>d36da</t>
+  </si>
+  <si>
+    <t>ccc19</t>
+  </si>
+  <si>
+    <t>39646</t>
+  </si>
+  <si>
+    <t>258ff</t>
+  </si>
+  <si>
+    <t>20454</t>
+  </si>
+  <si>
+    <t>23ef6</t>
+  </si>
+  <si>
+    <t>16287</t>
+  </si>
+  <si>
+    <t>6958e</t>
+  </si>
+  <si>
+    <t>dd6f5</t>
+  </si>
+  <si>
+    <t>f2fae</t>
+  </si>
+  <si>
+    <t>f65a5</t>
+  </si>
+  <si>
+    <t>6b372</t>
+  </si>
+  <si>
+    <t>59090</t>
+  </si>
+  <si>
+    <t>4919a</t>
+  </si>
+  <si>
+    <t>00e32</t>
+  </si>
+  <si>
+    <t>1ca99</t>
+  </si>
+  <si>
+    <t>39d4c</t>
+  </si>
+  <si>
+    <t>cff27</t>
+  </si>
+  <si>
+    <t>a4b95</t>
+  </si>
+  <si>
+    <t>9f1ed</t>
+  </si>
+  <si>
+    <t>71d45</t>
+  </si>
+  <si>
+    <t>44a21</t>
+  </si>
+  <si>
+    <t>efb12</t>
+  </si>
+  <si>
+    <t>83ed0</t>
+  </si>
+  <si>
+    <t>7650b</t>
+  </si>
+  <si>
+    <t>ef0f1</t>
+  </si>
+  <si>
+    <t>a9b63</t>
+  </si>
+  <si>
+    <t>be010</t>
+  </si>
+  <si>
+    <t>c4812</t>
+  </si>
+  <si>
+    <t>29c16</t>
+  </si>
+  <si>
+    <t>a02ca</t>
+  </si>
+  <si>
+    <t>76b1e</t>
+  </si>
+  <si>
+    <t>82e6b</t>
+  </si>
+  <si>
+    <t>c2a17</t>
+  </si>
+  <si>
+    <t>6b6d7</t>
+  </si>
+  <si>
+    <t>52bae</t>
+  </si>
+  <si>
+    <t>a06de</t>
+  </si>
+  <si>
+    <t>36cd6</t>
+  </si>
+  <si>
+    <t>3d38d</t>
+  </si>
+  <si>
+    <t>14492</t>
+  </si>
+  <si>
+    <t>2c928</t>
+  </si>
+  <si>
+    <t>85200</t>
+  </si>
+  <si>
+    <t>a82fa</t>
+  </si>
+  <si>
+    <t>e404a</t>
+  </si>
+  <si>
+    <t>fb86f</t>
+  </si>
+  <si>
+    <t>c0cc9</t>
+  </si>
+  <si>
+    <t>48f8b</t>
+  </si>
+  <si>
+    <t>5a66c</t>
+  </si>
+  <si>
+    <t>9738c</t>
+  </si>
+  <si>
+    <t>15e7c</t>
+  </si>
+  <si>
+    <t>d2422</t>
+  </si>
+  <si>
+    <t>7dc3c</t>
+  </si>
+  <si>
+    <t>79362</t>
+  </si>
+  <si>
+    <t>c729b</t>
+  </si>
+  <si>
+    <t>ba315</t>
+  </si>
+  <si>
+    <t>fd396</t>
+  </si>
+  <si>
+    <t>4cd7b</t>
+  </si>
+  <si>
+    <t>ce4d3</t>
+  </si>
+  <si>
+    <t>c0cfd</t>
+  </si>
+  <si>
+    <t>abf6d</t>
+  </si>
+  <si>
+    <t>b4ebb</t>
+  </si>
+  <si>
+    <t>29830</t>
+  </si>
+  <si>
+    <t>7a520</t>
+  </si>
+  <si>
+    <t>69985</t>
+  </si>
+  <si>
+    <t>066ff</t>
+  </si>
+  <si>
+    <t>7f230</t>
+  </si>
+  <si>
+    <t>b0539</t>
+  </si>
+  <si>
+    <t>9bf9e</t>
+  </si>
+  <si>
+    <t>be696</t>
+  </si>
+  <si>
+    <t>46ad4</t>
+  </si>
+  <si>
+    <t>67010</t>
+  </si>
+  <si>
+    <t>4593c</t>
+  </si>
+  <si>
+    <t>564d0</t>
+  </si>
+  <si>
+    <t>62ac3</t>
+  </si>
+  <si>
+    <t>6004c</t>
+  </si>
+  <si>
+    <t>ed271</t>
+  </si>
+  <si>
+    <t>eb9f1</t>
+  </si>
+  <si>
+    <t>19ce7</t>
+  </si>
+  <si>
+    <t>7f761</t>
+  </si>
+  <si>
+    <t>632b8</t>
+  </si>
+  <si>
+    <t>28038</t>
+  </si>
+  <si>
+    <t>f25b8</t>
+  </si>
+  <si>
+    <t>fed7b</t>
+  </si>
+  <si>
+    <t>710b8</t>
+  </si>
+  <si>
+    <t>3543b</t>
+  </si>
+  <si>
+    <t>57805</t>
+  </si>
+  <si>
+    <t>d8571</t>
+  </si>
+  <si>
+    <t>01a6c</t>
+  </si>
+  <si>
+    <t>74806</t>
+  </si>
+  <si>
+    <t>5b37e</t>
+  </si>
+  <si>
+    <t>b1889</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1880,8 +2520,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="108" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1991,7 +2631,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1999,11 +2639,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="17.28515625" style="3"/>
-    <col min="5" max="5" width="25.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="3"/>
-    <col min="7" max="7" width="27.42578125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="17.28515625" style="3"/>
+    <col min="1" max="4" style="3" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="25.85546875" collapsed="true"/>
+    <col min="6" max="6" style="3" width="17.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="27.42578125" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1">
@@ -2045,8 +2685,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A2" s="4">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>676</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -2081,10 +2721,16 @@
       <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M2" t="s">
+        <v>467</v>
+      </c>
+      <c r="N2" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="30" thickBot="1">
-      <c r="A3" s="4">
-        <v>2</v>
+      <c r="A3" s="4" t="s">
+        <v>677</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2119,10 +2765,16 @@
       <c r="L3" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M3" t="s">
+        <v>467</v>
+      </c>
+      <c r="N3" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="30" thickBot="1">
-      <c r="A4" s="7">
-        <v>3</v>
+      <c r="A4" s="7" t="s">
+        <v>626</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -2157,10 +2809,16 @@
       <c r="L4" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M4" t="s">
+        <v>467</v>
+      </c>
+      <c r="N4" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="30" thickBot="1">
-      <c r="A5" s="4">
-        <v>4</v>
+      <c r="A5" s="4" t="s">
+        <v>627</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -2195,10 +2853,16 @@
       <c r="L5" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M5" t="s">
+        <v>575</v>
+      </c>
+      <c r="N5" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A6" s="4">
-        <v>5</v>
+      <c r="A6" s="4" t="s">
+        <v>628</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>51</v>
@@ -2233,10 +2897,16 @@
       <c r="L6" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M6" t="s">
+        <v>575</v>
+      </c>
+      <c r="N6" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="30" thickBot="1">
-      <c r="A7" s="7">
-        <v>6</v>
+      <c r="A7" s="7" t="s">
+        <v>629</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>60</v>
@@ -2271,10 +2941,16 @@
       <c r="L7" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M7" t="s">
+        <v>575</v>
+      </c>
+      <c r="N7" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A8" s="4">
-        <v>7</v>
+      <c r="A8" s="4" t="s">
+        <v>630</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -2309,10 +2985,16 @@
       <c r="L8" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M8" t="s">
+        <v>467</v>
+      </c>
+      <c r="N8" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="30" thickBot="1">
-      <c r="A9" s="4">
-        <v>8</v>
+      <c r="A9" s="4" t="s">
+        <v>631</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>78</v>
@@ -2347,10 +3029,16 @@
       <c r="L9" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M9" t="s">
+        <v>575</v>
+      </c>
+      <c r="N9" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="30" thickBot="1">
-      <c r="A10" s="7">
-        <v>9</v>
+      <c r="A10" s="7" t="s">
+        <v>632</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>87</v>
@@ -2385,10 +3073,16 @@
       <c r="L10" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M10" t="s">
+        <v>467</v>
+      </c>
+      <c r="N10" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="30" thickBot="1">
-      <c r="A11" s="4">
-        <v>10</v>
+      <c r="A11" s="4" t="s">
+        <v>633</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>96</v>
@@ -2423,10 +3117,16 @@
       <c r="L11" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M11" t="s">
+        <v>575</v>
+      </c>
+      <c r="N11" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="30" thickBot="1">
-      <c r="A12" s="4">
-        <v>11</v>
+      <c r="A12" s="4" t="s">
+        <v>634</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -2461,10 +3161,16 @@
       <c r="L12" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M12" t="s">
+        <v>467</v>
+      </c>
+      <c r="N12" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="30" thickBot="1">
-      <c r="A13" s="7">
-        <v>12</v>
+      <c r="A13" s="7" t="s">
+        <v>635</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>114</v>
@@ -2499,10 +3205,16 @@
       <c r="L13" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M13" t="s">
+        <v>467</v>
+      </c>
+      <c r="N13" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A14" s="4">
-        <v>13</v>
+      <c r="A14" s="4" t="s">
+        <v>636</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>123</v>
@@ -2537,10 +3249,16 @@
       <c r="L14" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M14" t="s">
+        <v>575</v>
+      </c>
+      <c r="N14" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="30" thickBot="1">
-      <c r="A15" s="4">
-        <v>14</v>
+      <c r="A15" s="4" t="s">
+        <v>637</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>131</v>
@@ -2575,10 +3293,16 @@
       <c r="L15" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M15" t="s">
+        <v>467</v>
+      </c>
+      <c r="N15" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A16" s="7">
-        <v>15</v>
+      <c r="A16" s="7" t="s">
+        <v>638</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>139</v>
@@ -2613,10 +3337,16 @@
       <c r="L16" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M16" t="s">
+        <v>575</v>
+      </c>
+      <c r="N16" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="17" spans="1:12" ht="30" thickBot="1">
-      <c r="A17" s="4">
-        <v>16</v>
+      <c r="A17" s="4" t="s">
+        <v>639</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>148</v>
@@ -2651,10 +3381,16 @@
       <c r="L17" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M17" t="s">
+        <v>575</v>
+      </c>
+      <c r="N17" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A18" s="4">
-        <v>17</v>
+      <c r="A18" s="4" t="s">
+        <v>640</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>156</v>
@@ -2689,10 +3425,16 @@
       <c r="L18" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M18" t="s">
+        <v>575</v>
+      </c>
+      <c r="N18" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A19" s="7">
-        <v>18</v>
+      <c r="A19" s="7" t="s">
+        <v>641</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>165</v>
@@ -2727,10 +3469,16 @@
       <c r="L19" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M19" t="s">
+        <v>575</v>
+      </c>
+      <c r="N19" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A20" s="4">
-        <v>19</v>
+      <c r="A20" s="4" t="s">
+        <v>642</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>173</v>
@@ -2765,10 +3513,16 @@
       <c r="L20" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M20" t="s">
+        <v>575</v>
+      </c>
+      <c r="N20" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A21" s="4">
-        <v>20</v>
+      <c r="A21" s="4" t="s">
+        <v>643</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>181</v>
@@ -2803,10 +3557,16 @@
       <c r="L21" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M21" t="s">
+        <v>467</v>
+      </c>
+      <c r="N21" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="30" thickBot="1">
-      <c r="A22" s="7">
-        <v>21</v>
+      <c r="A22" s="7" t="s">
+        <v>644</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>190</v>
@@ -2841,10 +3601,16 @@
       <c r="L22" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M22" t="s">
+        <v>467</v>
+      </c>
+      <c r="N22" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="30" thickBot="1">
-      <c r="A23" s="4">
-        <v>22</v>
+      <c r="A23" s="4" t="s">
+        <v>645</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -2879,10 +3645,16 @@
       <c r="L23" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M23" t="s">
+        <v>467</v>
+      </c>
+      <c r="N23" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A24" s="4">
-        <v>23</v>
+      <c r="A24" s="4" t="s">
+        <v>646</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>207</v>
@@ -2917,10 +3689,16 @@
       <c r="L24" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M24" t="s">
+        <v>467</v>
+      </c>
+      <c r="N24" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="30" thickBot="1">
-      <c r="A25" s="7">
-        <v>24</v>
+      <c r="A25" s="7" t="s">
+        <v>647</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>216</v>
@@ -2955,10 +3733,16 @@
       <c r="L25" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M25" t="s">
+        <v>467</v>
+      </c>
+      <c r="N25" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A26" s="4">
-        <v>25</v>
+      <c r="A26" s="4" t="s">
+        <v>648</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>225</v>
@@ -2993,10 +3777,16 @@
       <c r="L26" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M26" t="s">
+        <v>575</v>
+      </c>
+      <c r="N26" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="30" thickBot="1">
-      <c r="A27" s="4">
-        <v>26</v>
+      <c r="A27" s="4" t="s">
+        <v>649</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>234</v>
@@ -3031,10 +3821,16 @@
       <c r="L27" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M27" t="s">
+        <v>575</v>
+      </c>
+      <c r="N27" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="30" thickBot="1">
-      <c r="A28" s="7">
-        <v>27</v>
+      <c r="A28" s="7" t="s">
+        <v>650</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>243</v>
@@ -3069,10 +3865,16 @@
       <c r="L28" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M28" t="s">
+        <v>467</v>
+      </c>
+      <c r="N28" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="30" thickBot="1">
-      <c r="A29" s="4">
-        <v>28</v>
+      <c r="A29" s="4" t="s">
+        <v>651</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>251</v>
@@ -3107,10 +3909,16 @@
       <c r="L29" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M29" t="s">
+        <v>575</v>
+      </c>
+      <c r="N29" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="30" thickBot="1">
-      <c r="A30" s="4">
-        <v>29</v>
+      <c r="A30" s="4" t="s">
+        <v>652</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>259</v>
@@ -3145,10 +3953,16 @@
       <c r="L30" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M30" t="s">
+        <v>467</v>
+      </c>
+      <c r="N30" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="31" spans="1:12" ht="30" thickBot="1">
-      <c r="A31" s="7">
-        <v>30</v>
+      <c r="A31" s="7" t="s">
+        <v>653</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>268</v>
@@ -3183,10 +3997,16 @@
       <c r="L31" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M31" t="s">
+        <v>467</v>
+      </c>
+      <c r="N31" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A32" s="4">
-        <v>31</v>
+      <c r="A32" s="4" t="s">
+        <v>654</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>276</v>
@@ -3221,10 +4041,16 @@
       <c r="L32" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M32" t="s">
+        <v>467</v>
+      </c>
+      <c r="N32" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="30" thickBot="1">
-      <c r="A33" s="4">
-        <v>32</v>
+      <c r="A33" s="4" t="s">
+        <v>655</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>284</v>
@@ -3259,10 +4085,16 @@
       <c r="L33" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M33" t="s">
+        <v>467</v>
+      </c>
+      <c r="N33" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="30" thickBot="1">
-      <c r="A34" s="7">
-        <v>33</v>
+      <c r="A34" s="7" t="s">
+        <v>656</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>292</v>
@@ -3297,10 +4129,16 @@
       <c r="L34" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M34" t="s">
+        <v>467</v>
+      </c>
+      <c r="N34" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="30" thickBot="1">
-      <c r="A35" s="4">
-        <v>34</v>
+      <c r="A35" s="4" t="s">
+        <v>657</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>301</v>
@@ -3335,10 +4173,16 @@
       <c r="L35" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M35" t="s">
+        <v>467</v>
+      </c>
+      <c r="N35" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A36" s="4">
-        <v>35</v>
+      <c r="A36" s="4" t="s">
+        <v>658</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>310</v>
@@ -3373,10 +4217,16 @@
       <c r="L36" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M36" t="s">
+        <v>575</v>
+      </c>
+      <c r="N36" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="37" spans="1:12" ht="30" thickBot="1">
-      <c r="A37" s="7">
-        <v>36</v>
+      <c r="A37" s="7" t="s">
+        <v>659</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>319</v>
@@ -3411,10 +4261,16 @@
       <c r="L37" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M37" t="s">
+        <v>575</v>
+      </c>
+      <c r="N37" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="38" spans="1:12" ht="30" thickBot="1">
-      <c r="A38" s="4">
-        <v>37</v>
+      <c r="A38" s="4" t="s">
+        <v>660</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>327</v>
@@ -3449,10 +4305,16 @@
       <c r="L38" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M38" t="s">
+        <v>467</v>
+      </c>
+      <c r="N38" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="39" spans="1:12" ht="30" thickBot="1">
-      <c r="A39" s="4">
-        <v>38</v>
+      <c r="A39" s="4" t="s">
+        <v>661</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>336</v>
@@ -3487,10 +4349,16 @@
       <c r="L39" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M39" t="s">
+        <v>575</v>
+      </c>
+      <c r="N39" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A40" s="7">
-        <v>39</v>
+      <c r="A40" s="7" t="s">
+        <v>662</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>344</v>
@@ -3525,10 +4393,16 @@
       <c r="L40" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M40" t="s">
+        <v>467</v>
+      </c>
+      <c r="N40" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="30" thickBot="1">
-      <c r="A41" s="4">
-        <v>40</v>
+      <c r="A41" s="4" t="s">
+        <v>663</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>352</v>
@@ -3563,10 +4437,16 @@
       <c r="L41" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M41" t="s">
+        <v>467</v>
+      </c>
+      <c r="N41" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="42" spans="1:12" ht="30" thickBot="1">
-      <c r="A42" s="4">
-        <v>41</v>
+      <c r="A42" s="4" t="s">
+        <v>664</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>360</v>
@@ -3601,10 +4481,16 @@
       <c r="L42" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M42" t="s">
+        <v>467</v>
+      </c>
+      <c r="N42" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A43" s="7">
-        <v>42</v>
+      <c r="A43" s="7" t="s">
+        <v>665</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>368</v>
@@ -3639,10 +4525,16 @@
       <c r="L43" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M43" t="s">
+        <v>467</v>
+      </c>
+      <c r="N43" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="44" spans="1:12" ht="30" thickBot="1">
-      <c r="A44" s="4">
-        <v>43</v>
+      <c r="A44" s="4" t="s">
+        <v>666</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>377</v>
@@ -3677,10 +4569,16 @@
       <c r="L44" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M44" t="s">
+        <v>575</v>
+      </c>
+      <c r="N44" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="30" thickBot="1">
-      <c r="A45" s="4">
-        <v>44</v>
+      <c r="A45" s="4" t="s">
+        <v>667</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>386</v>
@@ -3715,10 +4613,16 @@
       <c r="L45" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M45" t="s">
+        <v>467</v>
+      </c>
+      <c r="N45" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A46" s="7">
-        <v>45</v>
+      <c r="A46" s="7" t="s">
+        <v>668</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>394</v>
@@ -3753,10 +4657,16 @@
       <c r="L46" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M46" t="s">
+        <v>467</v>
+      </c>
+      <c r="N46" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="47" spans="1:12" ht="30" thickBot="1">
-      <c r="A47" s="4">
-        <v>46</v>
+      <c r="A47" s="4" t="s">
+        <v>669</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>402</v>
@@ -3791,10 +4701,16 @@
       <c r="L47" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M47" t="s">
+        <v>575</v>
+      </c>
+      <c r="N47" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A48" s="4">
-        <v>47</v>
+      <c r="A48" s="4" t="s">
+        <v>670</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>410</v>
@@ -3829,10 +4745,16 @@
       <c r="L48" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M48" t="s">
+        <v>575</v>
+      </c>
+      <c r="N48" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="49" spans="1:12" ht="30" thickBot="1">
-      <c r="A49" s="7">
-        <v>48</v>
+      <c r="A49" s="7" t="s">
+        <v>671</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>418</v>
@@ -3867,10 +4789,16 @@
       <c r="L49" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M49" t="s">
+        <v>575</v>
+      </c>
+      <c r="N49" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="50" spans="1:12" ht="30" thickBot="1">
-      <c r="A50" s="4">
-        <v>49</v>
+      <c r="A50" s="4" t="s">
+        <v>672</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>427</v>
@@ -3905,10 +4833,16 @@
       <c r="L50" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="M50" t="s">
+        <v>467</v>
+      </c>
+      <c r="N50" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="51" spans="1:12" ht="30" thickBot="1">
-      <c r="A51" s="4">
-        <v>50</v>
+      <c r="A51" s="4" t="s">
+        <v>673</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>436</v>
@@ -3942,6 +4876,12 @@
       </c>
       <c r="L51" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="M51" t="s">
+        <v>467</v>
+      </c>
+      <c r="N51" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/data/pet-store-data.xlsx
+++ b/data/pet-store-data.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11895" windowHeight="2265" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="cart_items" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <oleSize ref="A1:F4"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="570">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1413,643 +1412,319 @@
     <t>https://petstore.octoperf.com/actions/Catalog.action?viewItem=&amp;itemId=EST-13</t>
   </si>
   <si>
-    <t>d4384</t>
-  </si>
-  <si>
-    <t>4afa0</t>
+    <t>e04bd</t>
   </si>
   <si>
     <t>japanese</t>
   </si>
   <si>
+    <t>DOGS</t>
+  </si>
+  <si>
+    <t>47270</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>67e9b</t>
+  </si>
+  <si>
+    <t>FISH</t>
+  </si>
+  <si>
+    <t>84dbf</t>
+  </si>
+  <si>
+    <t>CATS</t>
+  </si>
+  <si>
+    <t>99b7b</t>
+  </si>
+  <si>
+    <t>f8b0e</t>
+  </si>
+  <si>
+    <t>45f25</t>
+  </si>
+  <si>
+    <t>REPTILES</t>
+  </si>
+  <si>
+    <t>c7552</t>
+  </si>
+  <si>
+    <t>b5e14</t>
+  </si>
+  <si>
+    <t>0d16c</t>
+  </si>
+  <si>
+    <t>2af59</t>
+  </si>
+  <si>
     <t>BIRDS</t>
   </si>
   <si>
-    <t>8bf73</t>
-  </si>
-  <si>
-    <t>DOGS</t>
-  </si>
-  <si>
-    <t>fb910</t>
-  </si>
-  <si>
-    <t>englis</t>
-  </si>
-  <si>
-    <t>1f911</t>
-  </si>
-  <si>
-    <t>FISH</t>
-  </si>
-  <si>
-    <t>5fc1a</t>
-  </si>
-  <si>
-    <t>CATS</t>
-  </si>
-  <si>
-    <t>77147</t>
-  </si>
-  <si>
-    <t>56497</t>
-  </si>
-  <si>
-    <t>67d15</t>
-  </si>
-  <si>
-    <t>9f550</t>
-  </si>
-  <si>
-    <t>dd54c</t>
-  </si>
-  <si>
-    <t>REPTILES</t>
-  </si>
-  <si>
-    <t>04657</t>
-  </si>
-  <si>
-    <t>cd1e6</t>
-  </si>
-  <si>
-    <t>ec967</t>
-  </si>
-  <si>
-    <t>fc28d</t>
-  </si>
-  <si>
-    <t>1323f</t>
-  </si>
-  <si>
-    <t>a569b</t>
-  </si>
-  <si>
-    <t>77810</t>
-  </si>
-  <si>
-    <t>7b417</t>
-  </si>
-  <si>
-    <t>ef540</t>
-  </si>
-  <si>
-    <t>9014a</t>
-  </si>
-  <si>
-    <t>2c8f9</t>
-  </si>
-  <si>
-    <t>289ad</t>
-  </si>
-  <si>
-    <t>ddc55</t>
-  </si>
-  <si>
-    <t>ee0d9</t>
-  </si>
-  <si>
-    <t>a8bad</t>
-  </si>
-  <si>
-    <t>f80f9</t>
-  </si>
-  <si>
-    <t>36e63</t>
-  </si>
-  <si>
-    <t>ef19a</t>
-  </si>
-  <si>
-    <t>6c027</t>
-  </si>
-  <si>
-    <t>ddcee</t>
-  </si>
-  <si>
-    <t>3405c</t>
-  </si>
-  <si>
-    <t>65762</t>
-  </si>
-  <si>
-    <t>c78ec</t>
-  </si>
-  <si>
-    <t>f618f</t>
-  </si>
-  <si>
-    <t>0fbeb</t>
-  </si>
-  <si>
-    <t>51319</t>
-  </si>
-  <si>
-    <t>afe57</t>
-  </si>
-  <si>
-    <t>cc6e5</t>
-  </si>
-  <si>
-    <t>99329</t>
-  </si>
-  <si>
-    <t>bfbec</t>
-  </si>
-  <si>
-    <t>82563</t>
-  </si>
-  <si>
-    <t>4d9fe</t>
-  </si>
-  <si>
-    <t>edb89</t>
-  </si>
-  <si>
-    <t>8c565</t>
-  </si>
-  <si>
-    <t>34942</t>
-  </si>
-  <si>
-    <t>f3cc8</t>
-  </si>
-  <si>
-    <t>2adb9</t>
-  </si>
-  <si>
-    <t>635e4</t>
-  </si>
-  <si>
-    <t>15a55</t>
-  </si>
-  <si>
-    <t>c30a3</t>
-  </si>
-  <si>
-    <t>b30df</t>
-  </si>
-  <si>
-    <t>143ad</t>
-  </si>
-  <si>
-    <t>66fd6</t>
-  </si>
-  <si>
-    <t>690a5</t>
-  </si>
-  <si>
-    <t>dca32</t>
-  </si>
-  <si>
-    <t>5b898</t>
-  </si>
-  <si>
-    <t>5c7c1</t>
-  </si>
-  <si>
-    <t>b164a</t>
-  </si>
-  <si>
-    <t>a853c</t>
-  </si>
-  <si>
-    <t>834e2</t>
-  </si>
-  <si>
-    <t>09280</t>
-  </si>
-  <si>
-    <t>a93d9</t>
-  </si>
-  <si>
-    <t>28b58</t>
-  </si>
-  <si>
-    <t>c13d7</t>
-  </si>
-  <si>
-    <t>c0e92</t>
-  </si>
-  <si>
-    <t>f018d</t>
-  </si>
-  <si>
-    <t>d87d7</t>
-  </si>
-  <si>
-    <t>2156d</t>
-  </si>
-  <si>
-    <t>99ab0</t>
-  </si>
-  <si>
-    <t>7c0b6</t>
-  </si>
-  <si>
-    <t>b12fc</t>
-  </si>
-  <si>
-    <t>6c08a</t>
-  </si>
-  <si>
-    <t>b0f40</t>
-  </si>
-  <si>
-    <t>5f954</t>
-  </si>
-  <si>
-    <t>2dcbd</t>
-  </si>
-  <si>
-    <t>0f08b</t>
-  </si>
-  <si>
-    <t>f343c</t>
-  </si>
-  <si>
-    <t>a9c40</t>
-  </si>
-  <si>
-    <t>28528</t>
-  </si>
-  <si>
-    <t>6cf56</t>
-  </si>
-  <si>
-    <t>615af</t>
-  </si>
-  <si>
-    <t>379fd</t>
-  </si>
-  <si>
-    <t>27083</t>
-  </si>
-  <si>
-    <t>cda79</t>
-  </si>
-  <si>
-    <t>9f833</t>
-  </si>
-  <si>
-    <t>643b4</t>
-  </si>
-  <si>
-    <t>263b0</t>
-  </si>
-  <si>
-    <t>489e0</t>
-  </si>
-  <si>
-    <t>333ba</t>
-  </si>
-  <si>
-    <t>935cf</t>
-  </si>
-  <si>
-    <t>c4ead</t>
-  </si>
-  <si>
-    <t>239b1</t>
-  </si>
-  <si>
-    <t>0179c</t>
-  </si>
-  <si>
-    <t>3ec3f</t>
-  </si>
-  <si>
-    <t>aa7a7</t>
-  </si>
-  <si>
-    <t>13273</t>
-  </si>
-  <si>
-    <t>75141</t>
-  </si>
-  <si>
-    <t>95e32</t>
-  </si>
-  <si>
-    <t>1fba4</t>
-  </si>
-  <si>
-    <t>e3324</t>
-  </si>
-  <si>
-    <t>655e3</t>
-  </si>
-  <si>
-    <t>6e3a5</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>074de</t>
-  </si>
-  <si>
-    <t>97de4</t>
-  </si>
-  <si>
-    <t>5c6b1</t>
-  </si>
-  <si>
-    <t>1c0f4</t>
-  </si>
-  <si>
-    <t>2b8e4</t>
-  </si>
-  <si>
-    <t>9a04d</t>
-  </si>
-  <si>
-    <t>497f4</t>
-  </si>
-  <si>
-    <t>56033</t>
-  </si>
-  <si>
-    <t>a764d</t>
-  </si>
-  <si>
-    <t>ef077</t>
-  </si>
-  <si>
-    <t>e1ae9</t>
-  </si>
-  <si>
-    <t>d36da</t>
-  </si>
-  <si>
-    <t>ccc19</t>
-  </si>
-  <si>
-    <t>39646</t>
-  </si>
-  <si>
-    <t>258ff</t>
-  </si>
-  <si>
-    <t>20454</t>
-  </si>
-  <si>
-    <t>23ef6</t>
-  </si>
-  <si>
-    <t>16287</t>
-  </si>
-  <si>
-    <t>6958e</t>
-  </si>
-  <si>
-    <t>dd6f5</t>
-  </si>
-  <si>
-    <t>f2fae</t>
-  </si>
-  <si>
-    <t>f65a5</t>
-  </si>
-  <si>
-    <t>6b372</t>
-  </si>
-  <si>
-    <t>59090</t>
-  </si>
-  <si>
-    <t>4919a</t>
-  </si>
-  <si>
-    <t>00e32</t>
-  </si>
-  <si>
-    <t>1ca99</t>
-  </si>
-  <si>
-    <t>39d4c</t>
-  </si>
-  <si>
-    <t>cff27</t>
-  </si>
-  <si>
-    <t>a4b95</t>
-  </si>
-  <si>
-    <t>9f1ed</t>
-  </si>
-  <si>
-    <t>71d45</t>
-  </si>
-  <si>
-    <t>44a21</t>
-  </si>
-  <si>
-    <t>efb12</t>
-  </si>
-  <si>
-    <t>83ed0</t>
-  </si>
-  <si>
-    <t>7650b</t>
-  </si>
-  <si>
-    <t>ef0f1</t>
-  </si>
-  <si>
-    <t>a9b63</t>
-  </si>
-  <si>
-    <t>be010</t>
-  </si>
-  <si>
-    <t>c4812</t>
-  </si>
-  <si>
-    <t>29c16</t>
-  </si>
-  <si>
-    <t>a02ca</t>
-  </si>
-  <si>
-    <t>76b1e</t>
-  </si>
-  <si>
-    <t>82e6b</t>
-  </si>
-  <si>
-    <t>c2a17</t>
-  </si>
-  <si>
-    <t>6b6d7</t>
-  </si>
-  <si>
-    <t>52bae</t>
-  </si>
-  <si>
-    <t>a06de</t>
-  </si>
-  <si>
-    <t>36cd6</t>
-  </si>
-  <si>
-    <t>3d38d</t>
-  </si>
-  <si>
-    <t>14492</t>
-  </si>
-  <si>
-    <t>2c928</t>
-  </si>
-  <si>
-    <t>85200</t>
-  </si>
-  <si>
-    <t>a82fa</t>
-  </si>
-  <si>
-    <t>e404a</t>
-  </si>
-  <si>
-    <t>fb86f</t>
-  </si>
-  <si>
-    <t>c0cc9</t>
-  </si>
-  <si>
-    <t>48f8b</t>
-  </si>
-  <si>
-    <t>5a66c</t>
-  </si>
-  <si>
-    <t>9738c</t>
-  </si>
-  <si>
-    <t>15e7c</t>
-  </si>
-  <si>
-    <t>d2422</t>
-  </si>
-  <si>
-    <t>7dc3c</t>
-  </si>
-  <si>
-    <t>79362</t>
-  </si>
-  <si>
-    <t>c729b</t>
-  </si>
-  <si>
-    <t>ba315</t>
-  </si>
-  <si>
-    <t>fd396</t>
-  </si>
-  <si>
-    <t>4cd7b</t>
-  </si>
-  <si>
-    <t>ce4d3</t>
-  </si>
-  <si>
-    <t>c0cfd</t>
-  </si>
-  <si>
-    <t>abf6d</t>
-  </si>
-  <si>
-    <t>b4ebb</t>
-  </si>
-  <si>
-    <t>29830</t>
-  </si>
-  <si>
-    <t>7a520</t>
-  </si>
-  <si>
-    <t>69985</t>
-  </si>
-  <si>
-    <t>066ff</t>
-  </si>
-  <si>
-    <t>7f230</t>
-  </si>
-  <si>
-    <t>b0539</t>
-  </si>
-  <si>
-    <t>9bf9e</t>
-  </si>
-  <si>
-    <t>be696</t>
-  </si>
-  <si>
-    <t>46ad4</t>
-  </si>
-  <si>
-    <t>67010</t>
-  </si>
-  <si>
-    <t>4593c</t>
-  </si>
-  <si>
-    <t>564d0</t>
-  </si>
-  <si>
-    <t>62ac3</t>
-  </si>
-  <si>
-    <t>6004c</t>
-  </si>
-  <si>
-    <t>ed271</t>
-  </si>
-  <si>
-    <t>eb9f1</t>
-  </si>
-  <si>
-    <t>19ce7</t>
-  </si>
-  <si>
-    <t>7f761</t>
-  </si>
-  <si>
-    <t>632b8</t>
-  </si>
-  <si>
-    <t>28038</t>
-  </si>
-  <si>
-    <t>f25b8</t>
-  </si>
-  <si>
-    <t>fed7b</t>
-  </si>
-  <si>
-    <t>710b8</t>
-  </si>
-  <si>
-    <t>3543b</t>
-  </si>
-  <si>
-    <t>57805</t>
-  </si>
-  <si>
-    <t>d8571</t>
-  </si>
-  <si>
-    <t>01a6c</t>
-  </si>
-  <si>
-    <t>74806</t>
-  </si>
-  <si>
-    <t>5b37e</t>
-  </si>
-  <si>
-    <t>b1889</t>
+    <t>c89f7</t>
+  </si>
+  <si>
+    <t>9f2ed</t>
+  </si>
+  <si>
+    <t>59955</t>
+  </si>
+  <si>
+    <t>f59d4</t>
+  </si>
+  <si>
+    <t>142c5</t>
+  </si>
+  <si>
+    <t>9edd1</t>
+  </si>
+  <si>
+    <t>1faba</t>
+  </si>
+  <si>
+    <t>5199a</t>
+  </si>
+  <si>
+    <t>e1e04</t>
+  </si>
+  <si>
+    <t>41f76</t>
+  </si>
+  <si>
+    <t>757ad</t>
+  </si>
+  <si>
+    <t>15721</t>
+  </si>
+  <si>
+    <t>9a7bb</t>
+  </si>
+  <si>
+    <t>e809f</t>
+  </si>
+  <si>
+    <t>c734b</t>
+  </si>
+  <si>
+    <t>dee2a</t>
+  </si>
+  <si>
+    <t>33bb0</t>
+  </si>
+  <si>
+    <t>c282e</t>
+  </si>
+  <si>
+    <t>fbbcb</t>
+  </si>
+  <si>
+    <t>7db37</t>
+  </si>
+  <si>
+    <t>4a650</t>
+  </si>
+  <si>
+    <t>cc1c7</t>
+  </si>
+  <si>
+    <t>e893d</t>
+  </si>
+  <si>
+    <t>51427</t>
+  </si>
+  <si>
+    <t>80a44</t>
+  </si>
+  <si>
+    <t>e9abf</t>
+  </si>
+  <si>
+    <t>b7ece</t>
+  </si>
+  <si>
+    <t>34b78</t>
+  </si>
+  <si>
+    <t>797e6</t>
+  </si>
+  <si>
+    <t>97c86</t>
+  </si>
+  <si>
+    <t>00c66</t>
+  </si>
+  <si>
+    <t>7f709</t>
+  </si>
+  <si>
+    <t>5d5de</t>
+  </si>
+  <si>
+    <t>7ecb8</t>
+  </si>
+  <si>
+    <t>979e1</t>
+  </si>
+  <si>
+    <t>9867b</t>
+  </si>
+  <si>
+    <t>d24e5</t>
+  </si>
+  <si>
+    <t>9037f</t>
+  </si>
+  <si>
+    <t>338dc</t>
+  </si>
+  <si>
+    <t>d98f7</t>
+  </si>
+  <si>
+    <t>4f714</t>
+  </si>
+  <si>
+    <t>7992b</t>
+  </si>
+  <si>
+    <t>a9905</t>
+  </si>
+  <si>
+    <t>48d1a</t>
+  </si>
+  <si>
+    <t>cfc6e</t>
+  </si>
+  <si>
+    <t>c732e</t>
+  </si>
+  <si>
+    <t>9d71b</t>
+  </si>
+  <si>
+    <t>78266</t>
+  </si>
+  <si>
+    <t>c2baf</t>
+  </si>
+  <si>
+    <t>d65a2</t>
+  </si>
+  <si>
+    <t>bd82c</t>
+  </si>
+  <si>
+    <t>60ff0</t>
+  </si>
+  <si>
+    <t>c9d83</t>
+  </si>
+  <si>
+    <t>91078</t>
+  </si>
+  <si>
+    <t>460f7</t>
+  </si>
+  <si>
+    <t>5b653</t>
+  </si>
+  <si>
+    <t>c1086</t>
+  </si>
+  <si>
+    <t>180f6</t>
+  </si>
+  <si>
+    <t>afc39</t>
+  </si>
+  <si>
+    <t>53f17</t>
+  </si>
+  <si>
+    <t>7f67d</t>
+  </si>
+  <si>
+    <t>bb11a</t>
+  </si>
+  <si>
+    <t>42862</t>
+  </si>
+  <si>
+    <t>63ed5</t>
+  </si>
+  <si>
+    <t>76cc1</t>
+  </si>
+  <si>
+    <t>47e9d</t>
+  </si>
+  <si>
+    <t>233b8</t>
+  </si>
+  <si>
+    <t>57a9a</t>
+  </si>
+  <si>
+    <t>54c17</t>
+  </si>
+  <si>
+    <t>dafa4</t>
+  </si>
+  <si>
+    <t>d0bb8</t>
+  </si>
+  <si>
+    <t>c0853</t>
+  </si>
+  <si>
+    <t>1ea33</t>
+  </si>
+  <si>
+    <t>b17f5</t>
+  </si>
+  <si>
+    <t>d0457</t>
+  </si>
+  <si>
+    <t>9aff6</t>
+  </si>
+  <si>
+    <t>83960</t>
+  </si>
+  <si>
+    <t>051f5</t>
+  </si>
+  <si>
+    <t>06624</t>
+  </si>
+  <si>
+    <t>9cbf2</t>
+  </si>
+  <si>
+    <t>50a20</t>
+  </si>
+  <si>
+    <t>e51d3</t>
+  </si>
+  <si>
+    <t>d694f</t>
+  </si>
+  <si>
+    <t>fb2ec</t>
+  </si>
+  <si>
+    <t>b9467</t>
+  </si>
+  <si>
+    <t>f4e7c</t>
+  </si>
+  <si>
+    <t>57849</t>
   </si>
 </sst>
 </file>
@@ -2514,7 +2189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -2633,7 +2308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2646,7 +2321,7 @@
     <col min="8" max="16384" style="3" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2684,9 +2359,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+    <row r="2" spans="1:12" ht="44.25" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>676</v>
+        <v>521</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -2722,15 +2397,15 @@
         <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="44.25" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>677</v>
+        <v>522</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2766,15 +2441,15 @@
         <v>23</v>
       </c>
       <c r="M3" t="s">
+        <v>469</v>
+      </c>
+      <c r="N3" t="s">
         <v>467</v>
       </c>
-      <c r="N3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" thickBot="1">
+    </row>
+    <row r="4" spans="1:12" ht="58.5" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>626</v>
+        <v>523</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -2810,15 +2485,15 @@
         <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" thickBot="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="58.5" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>627</v>
+        <v>524</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -2854,15 +2529,15 @@
         <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>575</v>
+        <v>466</v>
       </c>
       <c r="N5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="44.25" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>628</v>
+        <v>525</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>51</v>
@@ -2898,15 +2573,15 @@
         <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>575</v>
+        <v>466</v>
       </c>
       <c r="N6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="44.25" thickBot="1">
       <c r="A7" s="7" t="s">
-        <v>629</v>
+        <v>526</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>60</v>
@@ -2942,15 +2617,15 @@
         <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>575</v>
+        <v>466</v>
       </c>
       <c r="N7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="44.25" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>630</v>
+        <v>527</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -2986,15 +2661,15 @@
         <v>23</v>
       </c>
       <c r="M8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="44.25" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>631</v>
+        <v>528</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>78</v>
@@ -3030,15 +2705,15 @@
         <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>575</v>
+        <v>469</v>
       </c>
       <c r="N9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" thickBot="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="58.5" thickBot="1">
       <c r="A10" s="7" t="s">
-        <v>632</v>
+        <v>529</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>87</v>
@@ -3074,15 +2749,15 @@
         <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N10" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" thickBot="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="58.5" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>633</v>
+        <v>530</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>96</v>
@@ -3118,15 +2793,15 @@
         <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>575</v>
+        <v>469</v>
       </c>
       <c r="N11" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" thickBot="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="58.5" thickBot="1">
       <c r="A12" s="4" t="s">
-        <v>634</v>
+        <v>531</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -3162,15 +2837,15 @@
         <v>23</v>
       </c>
       <c r="M12" t="s">
+        <v>469</v>
+      </c>
+      <c r="N12" t="s">
         <v>467</v>
       </c>
-      <c r="N12" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" thickBot="1">
+    </row>
+    <row r="13" spans="1:12" ht="44.25" thickBot="1">
       <c r="A13" s="7" t="s">
-        <v>635</v>
+        <v>532</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>114</v>
@@ -3206,15 +2881,15 @@
         <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N13" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="44.25" thickBot="1">
       <c r="A14" s="4" t="s">
-        <v>636</v>
+        <v>533</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>123</v>
@@ -3250,15 +2925,15 @@
         <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>575</v>
+        <v>469</v>
       </c>
       <c r="N14" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" thickBot="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="44.25" thickBot="1">
       <c r="A15" s="4" t="s">
-        <v>637</v>
+        <v>534</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>131</v>
@@ -3294,15 +2969,15 @@
         <v>23</v>
       </c>
       <c r="M15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="44.25" thickBot="1">
       <c r="A16" s="7" t="s">
-        <v>638</v>
+        <v>535</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>139</v>
@@ -3338,15 +3013,15 @@
         <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>575</v>
+        <v>466</v>
       </c>
       <c r="N16" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" thickBot="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="44.25" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>639</v>
+        <v>536</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>148</v>
@@ -3382,15 +3057,15 @@
         <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>575</v>
+        <v>469</v>
       </c>
       <c r="N17" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="44.25" thickBot="1">
       <c r="A18" s="4" t="s">
-        <v>640</v>
+        <v>537</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>156</v>
@@ -3426,15 +3101,15 @@
         <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>575</v>
+        <v>466</v>
       </c>
       <c r="N18" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="44.25" thickBot="1">
       <c r="A19" s="7" t="s">
-        <v>641</v>
+        <v>538</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>165</v>
@@ -3470,15 +3145,15 @@
         <v>23</v>
       </c>
       <c r="M19" t="s">
-        <v>575</v>
+        <v>466</v>
       </c>
       <c r="N19" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="44.25" thickBot="1">
       <c r="A20" s="4" t="s">
-        <v>642</v>
+        <v>539</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>173</v>
@@ -3514,15 +3189,15 @@
         <v>23</v>
       </c>
       <c r="M20" t="s">
-        <v>575</v>
+        <v>469</v>
       </c>
       <c r="N20" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="44.25" thickBot="1">
       <c r="A21" s="4" t="s">
-        <v>643</v>
+        <v>540</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>181</v>
@@ -3558,15 +3233,15 @@
         <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N21" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="44.25" thickBot="1">
       <c r="A22" s="7" t="s">
-        <v>644</v>
+        <v>541</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>190</v>
@@ -3602,15 +3277,15 @@
         <v>23</v>
       </c>
       <c r="M22" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N22" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" thickBot="1">
+    <row r="23" spans="1:12" ht="58.5" thickBot="1">
       <c r="A23" s="4" t="s">
-        <v>645</v>
+        <v>542</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -3646,15 +3321,15 @@
         <v>23</v>
       </c>
       <c r="M23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N23" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="44.25" thickBot="1">
       <c r="A24" s="4" t="s">
-        <v>646</v>
+        <v>543</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>207</v>
@@ -3690,15 +3365,15 @@
         <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N24" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" thickBot="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="58.5" thickBot="1">
       <c r="A25" s="7" t="s">
-        <v>647</v>
+        <v>544</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>216</v>
@@ -3734,15 +3409,15 @@
         <v>23</v>
       </c>
       <c r="M25" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N25" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1">
+    <row r="26" spans="1:12" ht="58.5" thickBot="1">
       <c r="A26" s="4" t="s">
-        <v>648</v>
+        <v>545</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>225</v>
@@ -3778,15 +3453,15 @@
         <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>575</v>
+        <v>466</v>
       </c>
       <c r="N26" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30" thickBot="1">
+    <row r="27" spans="1:12" ht="58.5" thickBot="1">
       <c r="A27" s="4" t="s">
-        <v>649</v>
+        <v>546</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>234</v>
@@ -3822,15 +3497,15 @@
         <v>23</v>
       </c>
       <c r="M27" t="s">
-        <v>575</v>
+        <v>466</v>
       </c>
       <c r="N27" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="44.25" thickBot="1">
       <c r="A28" s="7" t="s">
-        <v>650</v>
+        <v>547</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>243</v>
@@ -3866,15 +3541,15 @@
         <v>23</v>
       </c>
       <c r="M28" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N28" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30" thickBot="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="58.5" thickBot="1">
       <c r="A29" s="4" t="s">
-        <v>651</v>
+        <v>548</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>251</v>
@@ -3910,15 +3585,15 @@
         <v>23</v>
       </c>
       <c r="M29" t="s">
-        <v>575</v>
+        <v>469</v>
       </c>
       <c r="N29" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="30" thickBot="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="44.25" thickBot="1">
       <c r="A30" s="4" t="s">
-        <v>652</v>
+        <v>549</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>259</v>
@@ -3954,15 +3629,15 @@
         <v>23</v>
       </c>
       <c r="M30" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N30" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="30" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="58.5" thickBot="1">
       <c r="A31" s="7" t="s">
-        <v>653</v>
+        <v>550</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>268</v>
@@ -3998,15 +3673,15 @@
         <v>23</v>
       </c>
       <c r="M31" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N31" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="44.25" thickBot="1">
       <c r="A32" s="4" t="s">
-        <v>654</v>
+        <v>551</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>276</v>
@@ -4042,15 +3717,15 @@
         <v>23</v>
       </c>
       <c r="M32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N32" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" thickBot="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="58.5" thickBot="1">
       <c r="A33" s="4" t="s">
-        <v>655</v>
+        <v>552</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>284</v>
@@ -4086,15 +3761,15 @@
         <v>23</v>
       </c>
       <c r="M33" t="s">
+        <v>469</v>
+      </c>
+      <c r="N33" t="s">
         <v>467</v>
       </c>
-      <c r="N33" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="30" thickBot="1">
+    </row>
+    <row r="34" spans="1:12" ht="44.25" thickBot="1">
       <c r="A34" s="7" t="s">
-        <v>656</v>
+        <v>553</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>292</v>
@@ -4130,15 +3805,15 @@
         <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N34" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="30" thickBot="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="58.5" thickBot="1">
       <c r="A35" s="4" t="s">
-        <v>657</v>
+        <v>554</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>301</v>
@@ -4174,15 +3849,15 @@
         <v>23</v>
       </c>
       <c r="M35" t="s">
+        <v>466</v>
+      </c>
+      <c r="N35" t="s">
         <v>467</v>
       </c>
-      <c r="N35" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    </row>
+    <row r="36" spans="1:12" ht="58.5" thickBot="1">
       <c r="A36" s="4" t="s">
-        <v>658</v>
+        <v>555</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>310</v>
@@ -4218,15 +3893,15 @@
         <v>23</v>
       </c>
       <c r="M36" t="s">
-        <v>575</v>
+        <v>469</v>
       </c>
       <c r="N36" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="30" thickBot="1">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="44.25" thickBot="1">
       <c r="A37" s="7" t="s">
-        <v>659</v>
+        <v>556</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>319</v>
@@ -4262,15 +3937,15 @@
         <v>23</v>
       </c>
       <c r="M37" t="s">
-        <v>575</v>
+        <v>466</v>
       </c>
       <c r="N37" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="30" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="44.25" thickBot="1">
       <c r="A38" s="4" t="s">
-        <v>660</v>
+        <v>557</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>327</v>
@@ -4306,15 +3981,15 @@
         <v>23</v>
       </c>
       <c r="M38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N38" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="30" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="58.5" thickBot="1">
       <c r="A39" s="4" t="s">
-        <v>661</v>
+        <v>558</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>336</v>
@@ -4350,15 +4025,15 @@
         <v>23</v>
       </c>
       <c r="M39" t="s">
-        <v>575</v>
+        <v>466</v>
       </c>
       <c r="N39" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="44.25" thickBot="1">
       <c r="A40" s="7" t="s">
-        <v>662</v>
+        <v>559</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>344</v>
@@ -4394,15 +4069,15 @@
         <v>23</v>
       </c>
       <c r="M40" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N40" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="30" thickBot="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="44.25" thickBot="1">
       <c r="A41" s="4" t="s">
-        <v>663</v>
+        <v>560</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>352</v>
@@ -4438,15 +4113,15 @@
         <v>23</v>
       </c>
       <c r="M41" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N41" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="30" thickBot="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="58.5" thickBot="1">
       <c r="A42" s="4" t="s">
-        <v>664</v>
+        <v>561</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>360</v>
@@ -4482,15 +4157,15 @@
         <v>23</v>
       </c>
       <c r="M42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N42" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="44.25" thickBot="1">
       <c r="A43" s="7" t="s">
-        <v>665</v>
+        <v>562</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>368</v>
@@ -4526,15 +4201,15 @@
         <v>23</v>
       </c>
       <c r="M43" t="s">
+        <v>469</v>
+      </c>
+      <c r="N43" t="s">
         <v>467</v>
       </c>
-      <c r="N43" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="30" thickBot="1">
+    </row>
+    <row r="44" spans="1:12" ht="58.5" thickBot="1">
       <c r="A44" s="4" t="s">
-        <v>666</v>
+        <v>563</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>377</v>
@@ -4570,15 +4245,15 @@
         <v>23</v>
       </c>
       <c r="M44" t="s">
-        <v>575</v>
+        <v>466</v>
       </c>
       <c r="N44" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="30" thickBot="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="58.5" thickBot="1">
       <c r="A45" s="4" t="s">
-        <v>667</v>
+        <v>564</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>386</v>
@@ -4614,15 +4289,15 @@
         <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N45" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="44.25" thickBot="1">
       <c r="A46" s="7" t="s">
-        <v>668</v>
+        <v>565</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>394</v>
@@ -4658,15 +4333,15 @@
         <v>23</v>
       </c>
       <c r="M46" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N46" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="30" thickBot="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="58.5" thickBot="1">
       <c r="A47" s="4" t="s">
-        <v>669</v>
+        <v>566</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>402</v>
@@ -4702,15 +4377,15 @@
         <v>23</v>
       </c>
       <c r="M47" t="s">
-        <v>575</v>
+        <v>469</v>
       </c>
       <c r="N47" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="44.25" thickBot="1">
       <c r="A48" s="4" t="s">
-        <v>670</v>
+        <v>567</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>410</v>
@@ -4746,15 +4421,15 @@
         <v>23</v>
       </c>
       <c r="M48" t="s">
-        <v>575</v>
+        <v>469</v>
       </c>
       <c r="N48" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="30" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="44.25" thickBot="1">
       <c r="A49" s="7" t="s">
-        <v>671</v>
+        <v>568</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>418</v>
@@ -4790,15 +4465,15 @@
         <v>23</v>
       </c>
       <c r="M49" t="s">
-        <v>575</v>
+        <v>466</v>
       </c>
       <c r="N49" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="30" thickBot="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="44.25" thickBot="1">
       <c r="A50" s="4" t="s">
-        <v>672</v>
+        <v>569</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>427</v>
@@ -4834,15 +4509,15 @@
         <v>23</v>
       </c>
       <c r="M50" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N50" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="30" thickBot="1">
-      <c r="A51" s="4" t="s">
-        <v>673</v>
+    <row r="51" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A51" s="4">
+        <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>436</v>
@@ -4876,12 +4551,6 @@
       </c>
       <c r="L51" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="M51" t="s">
-        <v>467</v>
-      </c>
-      <c r="N51" t="s">
-        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/data/pet-store-data.xlsx
+++ b/data/pet-store-data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11895" windowHeight="4365"/>
   </bookViews>
   <sheets>
     <sheet name="cart_items" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
+  <oleSize ref="A1:B13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="521">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1412,172 +1413,25 @@
     <t>https://petstore.octoperf.com/actions/Catalog.action?viewItem=&amp;itemId=EST-13</t>
   </si>
   <si>
-    <t>e04bd</t>
-  </si>
-  <si>
     <t>japanese</t>
   </si>
   <si>
     <t>DOGS</t>
   </si>
   <si>
-    <t>47270</t>
-  </si>
-  <si>
     <t>english</t>
   </si>
   <si>
-    <t>67e9b</t>
-  </si>
-  <si>
     <t>FISH</t>
   </si>
   <si>
-    <t>84dbf</t>
-  </si>
-  <si>
     <t>CATS</t>
   </si>
   <si>
-    <t>99b7b</t>
-  </si>
-  <si>
-    <t>f8b0e</t>
-  </si>
-  <si>
-    <t>45f25</t>
-  </si>
-  <si>
     <t>REPTILES</t>
   </si>
   <si>
-    <t>c7552</t>
-  </si>
-  <si>
-    <t>b5e14</t>
-  </si>
-  <si>
-    <t>0d16c</t>
-  </si>
-  <si>
-    <t>2af59</t>
-  </si>
-  <si>
     <t>BIRDS</t>
-  </si>
-  <si>
-    <t>c89f7</t>
-  </si>
-  <si>
-    <t>9f2ed</t>
-  </si>
-  <si>
-    <t>59955</t>
-  </si>
-  <si>
-    <t>f59d4</t>
-  </si>
-  <si>
-    <t>142c5</t>
-  </si>
-  <si>
-    <t>9edd1</t>
-  </si>
-  <si>
-    <t>1faba</t>
-  </si>
-  <si>
-    <t>5199a</t>
-  </si>
-  <si>
-    <t>e1e04</t>
-  </si>
-  <si>
-    <t>41f76</t>
-  </si>
-  <si>
-    <t>757ad</t>
-  </si>
-  <si>
-    <t>15721</t>
-  </si>
-  <si>
-    <t>9a7bb</t>
-  </si>
-  <si>
-    <t>e809f</t>
-  </si>
-  <si>
-    <t>c734b</t>
-  </si>
-  <si>
-    <t>dee2a</t>
-  </si>
-  <si>
-    <t>33bb0</t>
-  </si>
-  <si>
-    <t>c282e</t>
-  </si>
-  <si>
-    <t>fbbcb</t>
-  </si>
-  <si>
-    <t>7db37</t>
-  </si>
-  <si>
-    <t>4a650</t>
-  </si>
-  <si>
-    <t>cc1c7</t>
-  </si>
-  <si>
-    <t>e893d</t>
-  </si>
-  <si>
-    <t>51427</t>
-  </si>
-  <si>
-    <t>80a44</t>
-  </si>
-  <si>
-    <t>e9abf</t>
-  </si>
-  <si>
-    <t>b7ece</t>
-  </si>
-  <si>
-    <t>34b78</t>
-  </si>
-  <si>
-    <t>797e6</t>
-  </si>
-  <si>
-    <t>97c86</t>
-  </si>
-  <si>
-    <t>00c66</t>
-  </si>
-  <si>
-    <t>7f709</t>
-  </si>
-  <si>
-    <t>5d5de</t>
-  </si>
-  <si>
-    <t>7ecb8</t>
-  </si>
-  <si>
-    <t>979e1</t>
-  </si>
-  <si>
-    <t>9867b</t>
-  </si>
-  <si>
-    <t>d24e5</t>
-  </si>
-  <si>
-    <t>9037f</t>
   </si>
   <si>
     <t>338dc</t>
@@ -1731,7 +1585,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -2190,13 +2043,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
+    <col min="1" max="1" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="108" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2308,20 +2161,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" style="3" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="25.85546875" collapsed="true"/>
-    <col min="6" max="6" style="3" width="17.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="27.42578125" collapsed="true"/>
-    <col min="8" max="16384" style="3" width="17.28515625" collapsed="true"/>
+    <col min="1" max="4" width="17.28515625" style="3" collapsed="1"/>
+    <col min="5" max="5" width="25.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.28515625" style="3" collapsed="1"/>
+    <col min="7" max="7" width="27.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="17.28515625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" thickBot="1">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2359,9 +2212,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="44.25" thickBot="1">
+    <row r="2" spans="1:14" ht="15.75" thickBot="1">
       <c r="A2" s="4" t="s">
-        <v>521</v>
+        <v>472</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -2397,15 +2250,15 @@
         <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="44.25" thickBot="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" thickBot="1">
       <c r="A3" s="4" t="s">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2441,15 +2294,15 @@
         <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="58.5" thickBot="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" thickBot="1">
       <c r="A4" s="7" t="s">
-        <v>523</v>
+        <v>474</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -2485,15 +2338,15 @@
         <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="58.5" thickBot="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" thickBot="1">
       <c r="A5" s="4" t="s">
-        <v>524</v>
+        <v>475</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -2529,15 +2382,15 @@
         <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N5" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="44.25" thickBot="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>525</v>
+        <v>476</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>51</v>
@@ -2573,15 +2426,15 @@
         <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N6" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="44.25" thickBot="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" thickBot="1">
       <c r="A7" s="7" t="s">
-        <v>526</v>
+        <v>477</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>60</v>
@@ -2617,15 +2470,15 @@
         <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="44.25" thickBot="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>527</v>
+        <v>478</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -2661,15 +2514,15 @@
         <v>23</v>
       </c>
       <c r="M8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="44.25" thickBot="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>528</v>
+        <v>479</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>78</v>
@@ -2705,15 +2558,15 @@
         <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="58.5" thickBot="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" thickBot="1">
       <c r="A10" s="7" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>87</v>
@@ -2749,15 +2602,15 @@
         <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="58.5" thickBot="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>96</v>
@@ -2793,15 +2646,15 @@
         <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" thickBot="1">
+      <c r="A12" s="4" t="s">
         <v>482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="58.5" thickBot="1">
-      <c r="A12" s="4" t="s">
-        <v>531</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -2837,15 +2690,15 @@
         <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N12" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="44.25" thickBot="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" thickBot="1">
       <c r="A13" s="7" t="s">
-        <v>532</v>
+        <v>483</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>114</v>
@@ -2881,15 +2734,15 @@
         <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N13" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="44.25" thickBot="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
       <c r="A14" s="4" t="s">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>123</v>
@@ -2925,15 +2778,15 @@
         <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N14" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="44.25" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" thickBot="1">
       <c r="A15" s="4" t="s">
-        <v>534</v>
+        <v>485</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>131</v>
@@ -2969,15 +2822,15 @@
         <v>23</v>
       </c>
       <c r="M15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="44.25" thickBot="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" thickBot="1">
       <c r="A16" s="7" t="s">
-        <v>535</v>
+        <v>486</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>139</v>
@@ -3013,15 +2866,15 @@
         <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N16" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="44.25" thickBot="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>536</v>
+        <v>487</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>148</v>
@@ -3057,15 +2910,15 @@
         <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N17" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="44.25" thickBot="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" thickBot="1">
       <c r="A18" s="4" t="s">
-        <v>537</v>
+        <v>488</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>156</v>
@@ -3101,15 +2954,15 @@
         <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N18" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="44.25" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1">
       <c r="A19" s="7" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>165</v>
@@ -3145,15 +2998,15 @@
         <v>23</v>
       </c>
       <c r="M19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N19" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="44.25" thickBot="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" thickBot="1">
       <c r="A20" s="4" t="s">
-        <v>539</v>
+        <v>490</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>173</v>
@@ -3189,15 +3042,15 @@
         <v>23</v>
       </c>
       <c r="M20" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N20" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="44.25" thickBot="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1">
       <c r="A21" s="4" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>181</v>
@@ -3233,15 +3086,15 @@
         <v>23</v>
       </c>
       <c r="M21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N21" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="44.25" thickBot="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="30" thickBot="1">
       <c r="A22" s="7" t="s">
-        <v>541</v>
+        <v>492</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>190</v>
@@ -3277,15 +3130,15 @@
         <v>23</v>
       </c>
       <c r="M22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N22" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="58.5" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="30" thickBot="1">
       <c r="A23" s="4" t="s">
-        <v>542</v>
+        <v>493</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -3321,15 +3174,15 @@
         <v>23</v>
       </c>
       <c r="M23" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N23" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="44.25" thickBot="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1">
       <c r="A24" s="4" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>207</v>
@@ -3365,15 +3218,15 @@
         <v>23</v>
       </c>
       <c r="M24" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N24" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="58.5" thickBot="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="30" thickBot="1">
       <c r="A25" s="7" t="s">
-        <v>544</v>
+        <v>495</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>216</v>
@@ -3409,15 +3262,15 @@
         <v>23</v>
       </c>
       <c r="M25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N25" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="58.5" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1">
       <c r="A26" s="4" t="s">
-        <v>545</v>
+        <v>496</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>225</v>
@@ -3453,15 +3306,15 @@
         <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N26" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="58.5" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="30" thickBot="1">
       <c r="A27" s="4" t="s">
-        <v>546</v>
+        <v>497</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>234</v>
@@ -3497,15 +3350,15 @@
         <v>23</v>
       </c>
       <c r="M27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N27" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="44.25" thickBot="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="30" thickBot="1">
       <c r="A28" s="7" t="s">
-        <v>547</v>
+        <v>498</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>243</v>
@@ -3541,15 +3394,15 @@
         <v>23</v>
       </c>
       <c r="M28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N28" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="58.5" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="30" thickBot="1">
       <c r="A29" s="4" t="s">
-        <v>548</v>
+        <v>499</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>251</v>
@@ -3585,15 +3438,15 @@
         <v>23</v>
       </c>
       <c r="M29" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N29" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="44.25" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="30" thickBot="1">
       <c r="A30" s="4" t="s">
-        <v>549</v>
+        <v>500</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>259</v>
@@ -3629,15 +3482,15 @@
         <v>23</v>
       </c>
       <c r="M30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N30" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="58.5" thickBot="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30" thickBot="1">
       <c r="A31" s="7" t="s">
-        <v>550</v>
+        <v>501</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>268</v>
@@ -3673,15 +3526,15 @@
         <v>23</v>
       </c>
       <c r="M31" t="s">
+        <v>467</v>
+      </c>
+      <c r="N31" t="s">
         <v>469</v>
       </c>
-      <c r="N31" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="44.25" thickBot="1">
+    </row>
+    <row r="32" spans="1:14" ht="15.75" thickBot="1">
       <c r="A32" s="4" t="s">
-        <v>551</v>
+        <v>502</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>276</v>
@@ -3717,15 +3570,15 @@
         <v>23</v>
       </c>
       <c r="M32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N32" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="58.5" thickBot="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="30" thickBot="1">
       <c r="A33" s="4" t="s">
-        <v>552</v>
+        <v>503</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>284</v>
@@ -3761,15 +3614,15 @@
         <v>23</v>
       </c>
       <c r="M33" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N33" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="44.25" thickBot="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="30" thickBot="1">
       <c r="A34" s="7" t="s">
-        <v>553</v>
+        <v>504</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>292</v>
@@ -3805,15 +3658,15 @@
         <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N34" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="58.5" thickBot="1">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="30" thickBot="1">
       <c r="A35" s="4" t="s">
-        <v>554</v>
+        <v>505</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>301</v>
@@ -3849,15 +3702,15 @@
         <v>23</v>
       </c>
       <c r="M35" t="s">
+        <v>465</v>
+      </c>
+      <c r="N35" t="s">
         <v>466</v>
       </c>
-      <c r="N35" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="58.5" thickBot="1">
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
       <c r="A36" s="4" t="s">
-        <v>555</v>
+        <v>506</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>310</v>
@@ -3893,15 +3746,15 @@
         <v>23</v>
       </c>
       <c r="M36" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N36" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="44.25" thickBot="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="30" thickBot="1">
       <c r="A37" s="7" t="s">
-        <v>556</v>
+        <v>507</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>319</v>
@@ -3937,15 +3790,15 @@
         <v>23</v>
       </c>
       <c r="M37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N37" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="44.25" thickBot="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="30" thickBot="1">
       <c r="A38" s="4" t="s">
-        <v>557</v>
+        <v>508</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>327</v>
@@ -3981,15 +3834,15 @@
         <v>23</v>
       </c>
       <c r="M38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N38" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="58.5" thickBot="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="30" thickBot="1">
       <c r="A39" s="4" t="s">
-        <v>558</v>
+        <v>509</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>336</v>
@@ -4025,15 +3878,15 @@
         <v>23</v>
       </c>
       <c r="M39" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N39" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="44.25" thickBot="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" thickBot="1">
       <c r="A40" s="7" t="s">
-        <v>559</v>
+        <v>510</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>344</v>
@@ -4069,15 +3922,15 @@
         <v>23</v>
       </c>
       <c r="M40" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N40" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="44.25" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="30" thickBot="1">
       <c r="A41" s="4" t="s">
-        <v>560</v>
+        <v>511</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>352</v>
@@ -4113,15 +3966,15 @@
         <v>23</v>
       </c>
       <c r="M41" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N41" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="58.5" thickBot="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="30" thickBot="1">
       <c r="A42" s="4" t="s">
-        <v>561</v>
+        <v>512</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>360</v>
@@ -4157,15 +4010,15 @@
         <v>23</v>
       </c>
       <c r="M42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N42" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="44.25" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" thickBot="1">
       <c r="A43" s="7" t="s">
-        <v>562</v>
+        <v>513</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>368</v>
@@ -4201,15 +4054,15 @@
         <v>23</v>
       </c>
       <c r="M43" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N43" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="58.5" thickBot="1">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="30" thickBot="1">
       <c r="A44" s="4" t="s">
-        <v>563</v>
+        <v>514</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>377</v>
@@ -4245,15 +4098,15 @@
         <v>23</v>
       </c>
       <c r="M44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N44" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="58.5" thickBot="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="30" thickBot="1">
       <c r="A45" s="4" t="s">
-        <v>564</v>
+        <v>515</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>386</v>
@@ -4289,15 +4142,15 @@
         <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N45" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="44.25" thickBot="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" thickBot="1">
       <c r="A46" s="7" t="s">
-        <v>565</v>
+        <v>516</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>394</v>
@@ -4333,15 +4186,15 @@
         <v>23</v>
       </c>
       <c r="M46" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N46" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="58.5" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="30" thickBot="1">
       <c r="A47" s="4" t="s">
-        <v>566</v>
+        <v>517</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>402</v>
@@ -4377,15 +4230,15 @@
         <v>23</v>
       </c>
       <c r="M47" t="s">
+        <v>467</v>
+      </c>
+      <c r="N47" t="s">
         <v>469</v>
       </c>
-      <c r="N47" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="44.25" thickBot="1">
+    </row>
+    <row r="48" spans="1:14" ht="15.75" thickBot="1">
       <c r="A48" s="4" t="s">
-        <v>567</v>
+        <v>518</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>410</v>
@@ -4421,15 +4274,15 @@
         <v>23</v>
       </c>
       <c r="M48" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N48" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="44.25" thickBot="1">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="30" thickBot="1">
       <c r="A49" s="7" t="s">
-        <v>568</v>
+        <v>519</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>418</v>
@@ -4465,15 +4318,15 @@
         <v>23</v>
       </c>
       <c r="M49" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N49" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="44.25" thickBot="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="30" thickBot="1">
       <c r="A50" s="4" t="s">
-        <v>569</v>
+        <v>520</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>427</v>
@@ -4509,13 +4362,13 @@
         <v>23</v>
       </c>
       <c r="M50" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N50" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="44.25" thickBot="1">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="30" thickBot="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>

--- a/data/pet-store-data.xlsx
+++ b/data/pet-store-data.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11895" windowHeight="4365"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10995" windowHeight="3315"/>
   </bookViews>
   <sheets>
     <sheet name="cart_items" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:B13"/>
+  <oleSize ref="A1:B9"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="465">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1411,174 +1411,6 @@
   </si>
   <si>
     <t>https://petstore.octoperf.com/actions/Catalog.action?viewItem=&amp;itemId=EST-13</t>
-  </si>
-  <si>
-    <t>japanese</t>
-  </si>
-  <si>
-    <t>DOGS</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>FISH</t>
-  </si>
-  <si>
-    <t>CATS</t>
-  </si>
-  <si>
-    <t>REPTILES</t>
-  </si>
-  <si>
-    <t>BIRDS</t>
-  </si>
-  <si>
-    <t>338dc</t>
-  </si>
-  <si>
-    <t>d98f7</t>
-  </si>
-  <si>
-    <t>4f714</t>
-  </si>
-  <si>
-    <t>7992b</t>
-  </si>
-  <si>
-    <t>a9905</t>
-  </si>
-  <si>
-    <t>48d1a</t>
-  </si>
-  <si>
-    <t>cfc6e</t>
-  </si>
-  <si>
-    <t>c732e</t>
-  </si>
-  <si>
-    <t>9d71b</t>
-  </si>
-  <si>
-    <t>78266</t>
-  </si>
-  <si>
-    <t>c2baf</t>
-  </si>
-  <si>
-    <t>d65a2</t>
-  </si>
-  <si>
-    <t>bd82c</t>
-  </si>
-  <si>
-    <t>60ff0</t>
-  </si>
-  <si>
-    <t>c9d83</t>
-  </si>
-  <si>
-    <t>91078</t>
-  </si>
-  <si>
-    <t>460f7</t>
-  </si>
-  <si>
-    <t>5b653</t>
-  </si>
-  <si>
-    <t>c1086</t>
-  </si>
-  <si>
-    <t>180f6</t>
-  </si>
-  <si>
-    <t>afc39</t>
-  </si>
-  <si>
-    <t>53f17</t>
-  </si>
-  <si>
-    <t>7f67d</t>
-  </si>
-  <si>
-    <t>bb11a</t>
-  </si>
-  <si>
-    <t>42862</t>
-  </si>
-  <si>
-    <t>63ed5</t>
-  </si>
-  <si>
-    <t>76cc1</t>
-  </si>
-  <si>
-    <t>47e9d</t>
-  </si>
-  <si>
-    <t>233b8</t>
-  </si>
-  <si>
-    <t>57a9a</t>
-  </si>
-  <si>
-    <t>54c17</t>
-  </si>
-  <si>
-    <t>dafa4</t>
-  </si>
-  <si>
-    <t>d0bb8</t>
-  </si>
-  <si>
-    <t>c0853</t>
-  </si>
-  <si>
-    <t>1ea33</t>
-  </si>
-  <si>
-    <t>b17f5</t>
-  </si>
-  <si>
-    <t>d0457</t>
-  </si>
-  <si>
-    <t>9aff6</t>
-  </si>
-  <si>
-    <t>83960</t>
-  </si>
-  <si>
-    <t>051f5</t>
-  </si>
-  <si>
-    <t>06624</t>
-  </si>
-  <si>
-    <t>9cbf2</t>
-  </si>
-  <si>
-    <t>50a20</t>
-  </si>
-  <si>
-    <t>e51d3</t>
-  </si>
-  <si>
-    <t>d694f</t>
-  </si>
-  <si>
-    <t>fb2ec</t>
-  </si>
-  <si>
-    <t>b9467</t>
-  </si>
-  <si>
-    <t>f4e7c</t>
-  </si>
-  <si>
-    <t>57849</t>
   </si>
 </sst>
 </file>
@@ -2043,13 +1875,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="108" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="108" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2159,22 +1991,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="17.28515625" style="3" collapsed="1"/>
-    <col min="5" max="5" width="25.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.28515625" style="3" collapsed="1"/>
-    <col min="7" max="7" width="27.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="17.28515625" style="3" collapsed="1"/>
+    <col min="1" max="4" width="17.28515625" style="3"/>
+    <col min="5" max="5" width="25.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="3"/>
+    <col min="7" max="7" width="27.42578125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="17.28515625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2212,9 +2044,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A2" s="4" t="s">
-        <v>472</v>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A2" s="4">
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -2249,16 +2081,10 @@
       <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
-        <v>467</v>
-      </c>
-      <c r="N2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="30" thickBot="1">
-      <c r="A3" s="4" t="s">
-        <v>473</v>
+    </row>
+    <row r="3" spans="1:12" ht="30" thickBot="1">
+      <c r="A3" s="4">
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2293,16 +2119,10 @@
       <c r="L3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M3" t="s">
-        <v>467</v>
-      </c>
-      <c r="N3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="30" thickBot="1">
-      <c r="A4" s="7" t="s">
-        <v>474</v>
+    </row>
+    <row r="4" spans="1:12" ht="30" thickBot="1">
+      <c r="A4" s="7">
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -2337,16 +2157,10 @@
       <c r="L4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M4" t="s">
-        <v>465</v>
-      </c>
-      <c r="N4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="30" thickBot="1">
-      <c r="A5" s="4" t="s">
-        <v>475</v>
+    </row>
+    <row r="5" spans="1:12" ht="30" thickBot="1">
+      <c r="A5" s="4">
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -2381,16 +2195,10 @@
       <c r="L5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M5" t="s">
-        <v>465</v>
-      </c>
-      <c r="N5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A6" s="4" t="s">
-        <v>476</v>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A6" s="4">
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>51</v>
@@ -2425,16 +2233,10 @@
       <c r="L6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s">
-        <v>465</v>
-      </c>
-      <c r="N6" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="30" thickBot="1">
-      <c r="A7" s="7" t="s">
-        <v>477</v>
+    </row>
+    <row r="7" spans="1:12" ht="30" thickBot="1">
+      <c r="A7" s="7">
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>60</v>
@@ -2469,16 +2271,10 @@
       <c r="L7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M7" t="s">
-        <v>465</v>
-      </c>
-      <c r="N7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A8" s="4" t="s">
-        <v>478</v>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A8" s="4">
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -2513,16 +2309,10 @@
       <c r="L8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M8" t="s">
-        <v>465</v>
-      </c>
-      <c r="N8" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="30" thickBot="1">
-      <c r="A9" s="4" t="s">
-        <v>479</v>
+    </row>
+    <row r="9" spans="1:12" ht="30" thickBot="1">
+      <c r="A9" s="4">
+        <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>78</v>
@@ -2557,16 +2347,10 @@
       <c r="L9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M9" t="s">
-        <v>467</v>
-      </c>
-      <c r="N9" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="30" thickBot="1">
-      <c r="A10" s="7" t="s">
-        <v>480</v>
+    </row>
+    <row r="10" spans="1:12" ht="30" thickBot="1">
+      <c r="A10" s="7">
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>87</v>
@@ -2601,16 +2385,10 @@
       <c r="L10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M10" t="s">
-        <v>465</v>
-      </c>
-      <c r="N10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="30" thickBot="1">
-      <c r="A11" s="4" t="s">
-        <v>481</v>
+    </row>
+    <row r="11" spans="1:12" ht="30" thickBot="1">
+      <c r="A11" s="4">
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>96</v>
@@ -2645,16 +2423,10 @@
       <c r="L11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M11" t="s">
-        <v>467</v>
-      </c>
-      <c r="N11" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="30" thickBot="1">
-      <c r="A12" s="4" t="s">
-        <v>482</v>
+    </row>
+    <row r="12" spans="1:12" ht="30" thickBot="1">
+      <c r="A12" s="4">
+        <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -2689,16 +2461,10 @@
       <c r="L12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M12" t="s">
-        <v>467</v>
-      </c>
-      <c r="N12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="30" thickBot="1">
-      <c r="A13" s="7" t="s">
-        <v>483</v>
+    </row>
+    <row r="13" spans="1:12" ht="30" thickBot="1">
+      <c r="A13" s="7">
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>114</v>
@@ -2733,16 +2499,10 @@
       <c r="L13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M13" t="s">
-        <v>465</v>
-      </c>
-      <c r="N13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A14" s="4" t="s">
-        <v>484</v>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A14" s="4">
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>123</v>
@@ -2777,16 +2537,10 @@
       <c r="L14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M14" t="s">
-        <v>467</v>
-      </c>
-      <c r="N14" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="30" thickBot="1">
-      <c r="A15" s="4" t="s">
-        <v>485</v>
+    </row>
+    <row r="15" spans="1:12" ht="30" thickBot="1">
+      <c r="A15" s="4">
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>131</v>
@@ -2821,16 +2575,10 @@
       <c r="L15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M15" t="s">
-        <v>465</v>
-      </c>
-      <c r="N15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A16" s="7" t="s">
-        <v>486</v>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A16" s="7">
+        <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>139</v>
@@ -2865,16 +2613,10 @@
       <c r="L16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M16" t="s">
-        <v>465</v>
-      </c>
-      <c r="N16" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="30" thickBot="1">
-      <c r="A17" s="4" t="s">
-        <v>487</v>
+    </row>
+    <row r="17" spans="1:12" ht="30" thickBot="1">
+      <c r="A17" s="4">
+        <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>148</v>
@@ -2909,16 +2651,10 @@
       <c r="L17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M17" t="s">
-        <v>467</v>
-      </c>
-      <c r="N17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A18" s="4" t="s">
-        <v>488</v>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A18" s="4">
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>156</v>
@@ -2953,16 +2689,10 @@
       <c r="L18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M18" t="s">
-        <v>465</v>
-      </c>
-      <c r="N18" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A19" s="7" t="s">
-        <v>489</v>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A19" s="7">
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>165</v>
@@ -2997,16 +2727,10 @@
       <c r="L19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M19" t="s">
-        <v>465</v>
-      </c>
-      <c r="N19" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A20" s="4" t="s">
-        <v>490</v>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A20" s="4">
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>173</v>
@@ -3041,16 +2765,10 @@
       <c r="L20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M20" t="s">
-        <v>467</v>
-      </c>
-      <c r="N20" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A21" s="4" t="s">
-        <v>491</v>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A21" s="4">
+        <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>181</v>
@@ -3085,16 +2803,10 @@
       <c r="L21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M21" t="s">
-        <v>465</v>
-      </c>
-      <c r="N21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="30" thickBot="1">
-      <c r="A22" s="7" t="s">
-        <v>492</v>
+    </row>
+    <row r="22" spans="1:12" ht="30" thickBot="1">
+      <c r="A22" s="7">
+        <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>190</v>
@@ -3129,16 +2841,10 @@
       <c r="L22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M22" t="s">
-        <v>467</v>
-      </c>
-      <c r="N22" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="30" thickBot="1">
-      <c r="A23" s="4" t="s">
-        <v>493</v>
+    </row>
+    <row r="23" spans="1:12" ht="30" thickBot="1">
+      <c r="A23" s="4">
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -3173,16 +2879,10 @@
       <c r="L23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M23" t="s">
-        <v>465</v>
-      </c>
-      <c r="N23" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A24" s="4" t="s">
-        <v>494</v>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A24" s="4">
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>207</v>
@@ -3217,16 +2917,10 @@
       <c r="L24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M24" t="s">
-        <v>465</v>
-      </c>
-      <c r="N24" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="30" thickBot="1">
-      <c r="A25" s="7" t="s">
-        <v>495</v>
+    </row>
+    <row r="25" spans="1:12" ht="30" thickBot="1">
+      <c r="A25" s="7">
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>216</v>
@@ -3261,16 +2955,10 @@
       <c r="L25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M25" t="s">
-        <v>467</v>
-      </c>
-      <c r="N25" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A26" s="4" t="s">
-        <v>496</v>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A26" s="4">
+        <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>225</v>
@@ -3305,16 +2993,10 @@
       <c r="L26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M26" t="s">
-        <v>465</v>
-      </c>
-      <c r="N26" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="30" thickBot="1">
-      <c r="A27" s="4" t="s">
-        <v>497</v>
+    </row>
+    <row r="27" spans="1:12" ht="30" thickBot="1">
+      <c r="A27" s="4">
+        <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>234</v>
@@ -3349,16 +3031,10 @@
       <c r="L27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M27" t="s">
-        <v>465</v>
-      </c>
-      <c r="N27" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="30" thickBot="1">
-      <c r="A28" s="7" t="s">
-        <v>498</v>
+    </row>
+    <row r="28" spans="1:12" ht="30" thickBot="1">
+      <c r="A28" s="7">
+        <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>243</v>
@@ -3393,16 +3069,10 @@
       <c r="L28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M28" t="s">
-        <v>465</v>
-      </c>
-      <c r="N28" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="30" thickBot="1">
-      <c r="A29" s="4" t="s">
-        <v>499</v>
+    </row>
+    <row r="29" spans="1:12" ht="30" thickBot="1">
+      <c r="A29" s="4">
+        <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>251</v>
@@ -3437,16 +3107,10 @@
       <c r="L29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M29" t="s">
-        <v>467</v>
-      </c>
-      <c r="N29" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="30" thickBot="1">
-      <c r="A30" s="4" t="s">
-        <v>500</v>
+    </row>
+    <row r="30" spans="1:12" ht="30" thickBot="1">
+      <c r="A30" s="4">
+        <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>259</v>
@@ -3481,16 +3145,10 @@
       <c r="L30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M30" t="s">
-        <v>467</v>
-      </c>
-      <c r="N30" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="30" thickBot="1">
-      <c r="A31" s="7" t="s">
-        <v>501</v>
+    </row>
+    <row r="31" spans="1:12" ht="30" thickBot="1">
+      <c r="A31" s="7">
+        <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>268</v>
@@ -3525,16 +3183,10 @@
       <c r="L31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M31" t="s">
-        <v>467</v>
-      </c>
-      <c r="N31" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A32" s="4" t="s">
-        <v>502</v>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A32" s="4">
+        <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>276</v>
@@ -3569,16 +3221,10 @@
       <c r="L32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M32" t="s">
-        <v>465</v>
-      </c>
-      <c r="N32" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="30" thickBot="1">
-      <c r="A33" s="4" t="s">
-        <v>503</v>
+    </row>
+    <row r="33" spans="1:12" ht="30" thickBot="1">
+      <c r="A33" s="4">
+        <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>284</v>
@@ -3613,16 +3259,10 @@
       <c r="L33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M33" t="s">
-        <v>467</v>
-      </c>
-      <c r="N33" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="30" thickBot="1">
-      <c r="A34" s="7" t="s">
-        <v>504</v>
+    </row>
+    <row r="34" spans="1:12" ht="30" thickBot="1">
+      <c r="A34" s="7">
+        <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>292</v>
@@ -3657,16 +3297,10 @@
       <c r="L34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M34" t="s">
-        <v>465</v>
-      </c>
-      <c r="N34" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="30" thickBot="1">
-      <c r="A35" s="4" t="s">
-        <v>505</v>
+    </row>
+    <row r="35" spans="1:12" ht="30" thickBot="1">
+      <c r="A35" s="4">
+        <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>301</v>
@@ -3701,16 +3335,10 @@
       <c r="L35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M35" t="s">
-        <v>465</v>
-      </c>
-      <c r="N35" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A36" s="4" t="s">
-        <v>506</v>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A36" s="4">
+        <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>310</v>
@@ -3745,16 +3373,10 @@
       <c r="L36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M36" t="s">
-        <v>467</v>
-      </c>
-      <c r="N36" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="30" thickBot="1">
-      <c r="A37" s="7" t="s">
-        <v>507</v>
+    </row>
+    <row r="37" spans="1:12" ht="30" thickBot="1">
+      <c r="A37" s="7">
+        <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>319</v>
@@ -3789,16 +3411,10 @@
       <c r="L37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M37" t="s">
-        <v>465</v>
-      </c>
-      <c r="N37" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="30" thickBot="1">
-      <c r="A38" s="4" t="s">
-        <v>508</v>
+    </row>
+    <row r="38" spans="1:12" ht="30" thickBot="1">
+      <c r="A38" s="4">
+        <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>327</v>
@@ -3833,16 +3449,10 @@
       <c r="L38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M38" t="s">
-        <v>465</v>
-      </c>
-      <c r="N38" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="30" thickBot="1">
-      <c r="A39" s="4" t="s">
-        <v>509</v>
+    </row>
+    <row r="39" spans="1:12" ht="30" thickBot="1">
+      <c r="A39" s="4">
+        <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>336</v>
@@ -3877,16 +3487,10 @@
       <c r="L39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M39" t="s">
-        <v>465</v>
-      </c>
-      <c r="N39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A40" s="7" t="s">
-        <v>510</v>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A40" s="7">
+        <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>344</v>
@@ -3921,16 +3525,10 @@
       <c r="L40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M40" t="s">
-        <v>467</v>
-      </c>
-      <c r="N40" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="30" thickBot="1">
-      <c r="A41" s="4" t="s">
-        <v>511</v>
+    </row>
+    <row r="41" spans="1:12" ht="30" thickBot="1">
+      <c r="A41" s="4">
+        <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>352</v>
@@ -3965,16 +3563,10 @@
       <c r="L41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M41" t="s">
-        <v>467</v>
-      </c>
-      <c r="N41" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="30" thickBot="1">
-      <c r="A42" s="4" t="s">
-        <v>512</v>
+    </row>
+    <row r="42" spans="1:12" ht="30" thickBot="1">
+      <c r="A42" s="4">
+        <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>360</v>
@@ -4009,16 +3601,10 @@
       <c r="L42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M42" t="s">
-        <v>465</v>
-      </c>
-      <c r="N42" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A43" s="7" t="s">
-        <v>513</v>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A43" s="7">
+        <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>368</v>
@@ -4053,16 +3639,10 @@
       <c r="L43" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M43" t="s">
-        <v>467</v>
-      </c>
-      <c r="N43" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="30" thickBot="1">
-      <c r="A44" s="4" t="s">
-        <v>514</v>
+    </row>
+    <row r="44" spans="1:12" ht="30" thickBot="1">
+      <c r="A44" s="4">
+        <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>377</v>
@@ -4097,16 +3677,10 @@
       <c r="L44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M44" t="s">
-        <v>465</v>
-      </c>
-      <c r="N44" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="30" thickBot="1">
-      <c r="A45" s="4" t="s">
-        <v>515</v>
+    </row>
+    <row r="45" spans="1:12" ht="30" thickBot="1">
+      <c r="A45" s="4">
+        <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>386</v>
@@ -4141,16 +3715,10 @@
       <c r="L45" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M45" t="s">
-        <v>467</v>
-      </c>
-      <c r="N45" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A46" s="7" t="s">
-        <v>516</v>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A46" s="7">
+        <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>394</v>
@@ -4185,16 +3753,10 @@
       <c r="L46" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M46" t="s">
-        <v>465</v>
-      </c>
-      <c r="N46" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="30" thickBot="1">
-      <c r="A47" s="4" t="s">
-        <v>517</v>
+    </row>
+    <row r="47" spans="1:12" ht="30" thickBot="1">
+      <c r="A47" s="4">
+        <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>402</v>
@@ -4229,16 +3791,10 @@
       <c r="L47" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M47" t="s">
-        <v>467</v>
-      </c>
-      <c r="N47" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A48" s="4" t="s">
-        <v>518</v>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A48" s="4">
+        <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>410</v>
@@ -4273,16 +3829,10 @@
       <c r="L48" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M48" t="s">
-        <v>467</v>
-      </c>
-      <c r="N48" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="30" thickBot="1">
-      <c r="A49" s="7" t="s">
-        <v>519</v>
+    </row>
+    <row r="49" spans="1:12" ht="30" thickBot="1">
+      <c r="A49" s="7">
+        <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>418</v>
@@ -4317,16 +3867,10 @@
       <c r="L49" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M49" t="s">
-        <v>465</v>
-      </c>
-      <c r="N49" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="30" thickBot="1">
-      <c r="A50" s="4" t="s">
-        <v>520</v>
+    </row>
+    <row r="50" spans="1:12" ht="30" thickBot="1">
+      <c r="A50" s="4">
+        <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>427</v>
@@ -4361,14 +3905,8 @@
       <c r="L50" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M50" t="s">
-        <v>467</v>
-      </c>
-      <c r="N50" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="30" thickBot="1">
+    </row>
+    <row r="51" spans="1:12" ht="30" thickBot="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>

--- a/data/pet-store-data.xlsx
+++ b/data/pet-store-data.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10995" windowHeight="3315"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="cart_items" sheetId="1" r:id="rId1"/>
     <sheet name="users" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <oleSize ref="A1:B9"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="619">
   <si>
     <t>ITEM_ID</t>
   </si>
@@ -1411,12 +1410,475 @@
   </si>
   <si>
     <t>https://petstore.octoperf.com/actions/Catalog.action?viewItem=&amp;itemId=EST-13</t>
+  </si>
+  <si>
+    <t>f90e9</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>BIRDS</t>
+  </si>
+  <si>
+    <t>c77d5</t>
+  </si>
+  <si>
+    <t>japanese</t>
+  </si>
+  <si>
+    <t>DOGS</t>
+  </si>
+  <si>
+    <t>322f1</t>
+  </si>
+  <si>
+    <t>6ebd8</t>
+  </si>
+  <si>
+    <t>REPTILES</t>
+  </si>
+  <si>
+    <t>8fcba</t>
+  </si>
+  <si>
+    <t>CATS</t>
+  </si>
+  <si>
+    <t>4dbe6</t>
+  </si>
+  <si>
+    <t>07d7e</t>
+  </si>
+  <si>
+    <t>ce1d1</t>
+  </si>
+  <si>
+    <t>9d83b</t>
+  </si>
+  <si>
+    <t>FISH</t>
+  </si>
+  <si>
+    <t>429dc</t>
+  </si>
+  <si>
+    <t>555f3</t>
+  </si>
+  <si>
+    <t>d2988</t>
+  </si>
+  <si>
+    <t>162c0</t>
+  </si>
+  <si>
+    <t>538c8</t>
+  </si>
+  <si>
+    <t>9540d</t>
+  </si>
+  <si>
+    <t>bb4be</t>
+  </si>
+  <si>
+    <t>6d352</t>
+  </si>
+  <si>
+    <t>7e691</t>
+  </si>
+  <si>
+    <t>0fb97</t>
+  </si>
+  <si>
+    <t>fe7ce</t>
+  </si>
+  <si>
+    <t>1768f</t>
+  </si>
+  <si>
+    <t>9aa67</t>
+  </si>
+  <si>
+    <t>373ef</t>
+  </si>
+  <si>
+    <t>58042</t>
+  </si>
+  <si>
+    <t>8b050</t>
+  </si>
+  <si>
+    <t>71660</t>
+  </si>
+  <si>
+    <t>749af</t>
+  </si>
+  <si>
+    <t>cb338</t>
+  </si>
+  <si>
+    <t>b0c58</t>
+  </si>
+  <si>
+    <t>69604</t>
+  </si>
+  <si>
+    <t>5f153</t>
+  </si>
+  <si>
+    <t>551b9</t>
+  </si>
+  <si>
+    <t>dc31f</t>
+  </si>
+  <si>
+    <t>f9cc9</t>
+  </si>
+  <si>
+    <t>4b031</t>
+  </si>
+  <si>
+    <t>cdc55</t>
+  </si>
+  <si>
+    <t>bc5a3</t>
+  </si>
+  <si>
+    <t>c10dc</t>
+  </si>
+  <si>
+    <t>bb328</t>
+  </si>
+  <si>
+    <t>3cb58</t>
+  </si>
+  <si>
+    <t>3e743</t>
+  </si>
+  <si>
+    <t>57b9f</t>
+  </si>
+  <si>
+    <t>74e5b</t>
+  </si>
+  <si>
+    <t>e8bbf</t>
+  </si>
+  <si>
+    <t>87c83</t>
+  </si>
+  <si>
+    <t>8e88b</t>
+  </si>
+  <si>
+    <t>bc155</t>
+  </si>
+  <si>
+    <t>1886b</t>
+  </si>
+  <si>
+    <t>95b67</t>
+  </si>
+  <si>
+    <t>fb9fd</t>
+  </si>
+  <si>
+    <t>58951</t>
+  </si>
+  <si>
+    <t>d27e0</t>
+  </si>
+  <si>
+    <t>b68d0</t>
+  </si>
+  <si>
+    <t>5a25e</t>
+  </si>
+  <si>
+    <t>aed3a</t>
+  </si>
+  <si>
+    <t>08a72</t>
+  </si>
+  <si>
+    <t>00508</t>
+  </si>
+  <si>
+    <t>1055f</t>
+  </si>
+  <si>
+    <t>c67e2</t>
+  </si>
+  <si>
+    <t>f44be</t>
+  </si>
+  <si>
+    <t>751c1</t>
+  </si>
+  <si>
+    <t>bf3d9</t>
+  </si>
+  <si>
+    <t>85a07</t>
+  </si>
+  <si>
+    <t>2a246</t>
+  </si>
+  <si>
+    <t>6b3f6</t>
+  </si>
+  <si>
+    <t>aaf59</t>
+  </si>
+  <si>
+    <t>e4852</t>
+  </si>
+  <si>
+    <t>ecd68</t>
+  </si>
+  <si>
+    <t>08e92</t>
+  </si>
+  <si>
+    <t>50ec9</t>
+  </si>
+  <si>
+    <t>a94d4</t>
+  </si>
+  <si>
+    <t>007b6</t>
+  </si>
+  <si>
+    <t>d0799</t>
+  </si>
+  <si>
+    <t>bd3d6</t>
+  </si>
+  <si>
+    <t>033ea</t>
+  </si>
+  <si>
+    <t>741a1</t>
+  </si>
+  <si>
+    <t>b3315</t>
+  </si>
+  <si>
+    <t>7242a</t>
+  </si>
+  <si>
+    <t>4e296</t>
+  </si>
+  <si>
+    <t>cce4d</t>
+  </si>
+  <si>
+    <t>34193</t>
+  </si>
+  <si>
+    <t>7d68c</t>
+  </si>
+  <si>
+    <t>4ec31</t>
+  </si>
+  <si>
+    <t>4b50d</t>
+  </si>
+  <si>
+    <t>3af9c</t>
+  </si>
+  <si>
+    <t>c4488</t>
+  </si>
+  <si>
+    <t>9b57a</t>
+  </si>
+  <si>
+    <t>b4498</t>
+  </si>
+  <si>
+    <t>be7f7</t>
+  </si>
+  <si>
+    <t>d0d9e</t>
+  </si>
+  <si>
+    <t>aade0</t>
+  </si>
+  <si>
+    <t>9870c</t>
+  </si>
+  <si>
+    <t>105fd</t>
+  </si>
+  <si>
+    <t>0fe8b</t>
+  </si>
+  <si>
+    <t>0c809</t>
+  </si>
+  <si>
+    <t>55124</t>
+  </si>
+  <si>
+    <t>5d6c0</t>
+  </si>
+  <si>
+    <t>9e89f</t>
+  </si>
+  <si>
+    <t>f1aba</t>
+  </si>
+  <si>
+    <t>2486d</t>
+  </si>
+  <si>
+    <t>519f1</t>
+  </si>
+  <si>
+    <t>d063d</t>
+  </si>
+  <si>
+    <t>6950b</t>
+  </si>
+  <si>
+    <t>39653</t>
+  </si>
+  <si>
+    <t>825e6</t>
+  </si>
+  <si>
+    <t>6b6c8</t>
+  </si>
+  <si>
+    <t>7a41f</t>
+  </si>
+  <si>
+    <t>9735f</t>
+  </si>
+  <si>
+    <t>72932</t>
+  </si>
+  <si>
+    <t>22112</t>
+  </si>
+  <si>
+    <t>98ee3</t>
+  </si>
+  <si>
+    <t>dad59</t>
+  </si>
+  <si>
+    <t>a0a60</t>
+  </si>
+  <si>
+    <t>26638</t>
+  </si>
+  <si>
+    <t>2c561</t>
+  </si>
+  <si>
+    <t>bacbc</t>
+  </si>
+  <si>
+    <t>4c4da</t>
+  </si>
+  <si>
+    <t>1b914</t>
+  </si>
+  <si>
+    <t>e8859</t>
+  </si>
+  <si>
+    <t>c5eb2</t>
+  </si>
+  <si>
+    <t>403f0</t>
+  </si>
+  <si>
+    <t>52ab1</t>
+  </si>
+  <si>
+    <t>685dd</t>
+  </si>
+  <si>
+    <t>5c651</t>
+  </si>
+  <si>
+    <t>31122</t>
+  </si>
+  <si>
+    <t>efe24</t>
+  </si>
+  <si>
+    <t>a6310</t>
+  </si>
+  <si>
+    <t>d5254</t>
+  </si>
+  <si>
+    <t>3356d</t>
+  </si>
+  <si>
+    <t>03f6d</t>
+  </si>
+  <si>
+    <t>b8290</t>
+  </si>
+  <si>
+    <t>2c196</t>
+  </si>
+  <si>
+    <t>f5387</t>
+  </si>
+  <si>
+    <t>5f60e</t>
+  </si>
+  <si>
+    <t>a60ee</t>
+  </si>
+  <si>
+    <t>cc891</t>
+  </si>
+  <si>
+    <t>d64e3</t>
+  </si>
+  <si>
+    <t>d35e6</t>
+  </si>
+  <si>
+    <t>70edb</t>
+  </si>
+  <si>
+    <t>d72d4</t>
+  </si>
+  <si>
+    <t>a2d73</t>
+  </si>
+  <si>
+    <t>733ea</t>
+  </si>
+  <si>
+    <t>141ce</t>
+  </si>
+  <si>
+    <t>6c240</t>
+  </si>
+  <si>
+    <t>64d9d</t>
+  </si>
+  <si>
+    <t>9c242</t>
+  </si>
+  <si>
+    <t>20dfc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1880,8 +2342,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="108" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="108.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1991,22 +2453,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="17.28515625" style="3"/>
-    <col min="5" max="5" width="25.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="3"/>
-    <col min="7" max="7" width="27.42578125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="17.28515625" style="3"/>
+    <col min="1" max="4" style="3" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="25.85546875" collapsed="true"/>
+    <col min="6" max="6" style="3" width="17.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="27.42578125" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1">
+    <row r="1" spans="1:12" ht="30.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2044,9 +2506,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A2" s="4">
-        <v>1</v>
+    <row r="2" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A2" s="4" t="s">
+        <v>570</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -2081,10 +2543,16 @@
       <c r="L2" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" thickBot="1">
-      <c r="A3" s="4">
-        <v>2</v>
+      <c r="M2" t="s">
+        <v>466</v>
+      </c>
+      <c r="N2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>571</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -2119,10 +2587,16 @@
       <c r="L3" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" thickBot="1">
-      <c r="A4" s="7">
-        <v>3</v>
+      <c r="M3" t="s">
+        <v>466</v>
+      </c>
+      <c r="N3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A4" s="7" t="s">
+        <v>572</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>33</v>
@@ -2157,10 +2631,16 @@
       <c r="L4" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" thickBot="1">
-      <c r="A5" s="4">
-        <v>4</v>
+      <c r="M4" t="s">
+        <v>466</v>
+      </c>
+      <c r="N4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>573</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>42</v>
@@ -2195,10 +2675,16 @@
       <c r="L5" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A6" s="4">
-        <v>5</v>
+      <c r="M5" t="s">
+        <v>466</v>
+      </c>
+      <c r="N5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>574</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>51</v>
@@ -2233,10 +2719,16 @@
       <c r="L6" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" thickBot="1">
-      <c r="A7" s="7">
-        <v>6</v>
+      <c r="M6" t="s">
+        <v>469</v>
+      </c>
+      <c r="N6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A7" s="7" t="s">
+        <v>575</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>60</v>
@@ -2271,10 +2763,16 @@
       <c r="L7" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A8" s="4">
-        <v>7</v>
+      <c r="M7" t="s">
+        <v>466</v>
+      </c>
+      <c r="N7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>576</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>69</v>
@@ -2309,10 +2807,16 @@
       <c r="L8" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" thickBot="1">
-      <c r="A9" s="4">
-        <v>8</v>
+      <c r="M8" t="s">
+        <v>469</v>
+      </c>
+      <c r="N8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A9" s="4" t="s">
+        <v>577</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>78</v>
@@ -2347,10 +2851,16 @@
       <c r="L9" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" thickBot="1">
-      <c r="A10" s="7">
-        <v>9</v>
+      <c r="M9" t="s">
+        <v>466</v>
+      </c>
+      <c r="N9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A10" s="7" t="s">
+        <v>578</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>87</v>
@@ -2385,10 +2895,16 @@
       <c r="L10" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" thickBot="1">
-      <c r="A11" s="4">
-        <v>10</v>
+      <c r="M10" t="s">
+        <v>469</v>
+      </c>
+      <c r="N10" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>579</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>96</v>
@@ -2423,10 +2939,16 @@
       <c r="L11" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" thickBot="1">
-      <c r="A12" s="4">
-        <v>11</v>
+      <c r="M11" t="s">
+        <v>466</v>
+      </c>
+      <c r="N11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>580</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>105</v>
@@ -2461,10 +2983,16 @@
       <c r="L12" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" thickBot="1">
-      <c r="A13" s="7">
-        <v>12</v>
+      <c r="M12" t="s">
+        <v>466</v>
+      </c>
+      <c r="N12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A13" s="7" t="s">
+        <v>581</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>114</v>
@@ -2499,10 +3027,16 @@
       <c r="L13" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A14" s="4">
-        <v>13</v>
+      <c r="M13" t="s">
+        <v>469</v>
+      </c>
+      <c r="N13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A14" s="4" t="s">
+        <v>582</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>123</v>
@@ -2537,10 +3071,16 @@
       <c r="L14" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" thickBot="1">
-      <c r="A15" s="4">
-        <v>14</v>
+      <c r="M14" t="s">
+        <v>466</v>
+      </c>
+      <c r="N14" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A15" s="4" t="s">
+        <v>583</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>131</v>
@@ -2575,10 +3115,16 @@
       <c r="L15" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A16" s="7">
-        <v>15</v>
+      <c r="M15" t="s">
+        <v>469</v>
+      </c>
+      <c r="N15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A16" s="7" t="s">
+        <v>584</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>139</v>
@@ -2613,10 +3159,16 @@
       <c r="L16" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" thickBot="1">
-      <c r="A17" s="4">
-        <v>16</v>
+      <c r="M16" t="s">
+        <v>466</v>
+      </c>
+      <c r="N16" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A17" s="4" t="s">
+        <v>585</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>148</v>
@@ -2651,10 +3203,16 @@
       <c r="L17" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A18" s="4">
-        <v>17</v>
+      <c r="M17" t="s">
+        <v>469</v>
+      </c>
+      <c r="N17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A18" s="4" t="s">
+        <v>586</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>156</v>
@@ -2689,10 +3247,16 @@
       <c r="L18" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A19" s="7">
-        <v>18</v>
+      <c r="M18" t="s">
+        <v>469</v>
+      </c>
+      <c r="N18" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A19" s="7" t="s">
+        <v>587</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>165</v>
@@ -2727,10 +3291,16 @@
       <c r="L19" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A20" s="4">
-        <v>19</v>
+      <c r="M19" t="s">
+        <v>466</v>
+      </c>
+      <c r="N19" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>588</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>173</v>
@@ -2765,10 +3335,16 @@
       <c r="L20" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A21" s="4">
-        <v>20</v>
+      <c r="M20" t="s">
+        <v>466</v>
+      </c>
+      <c r="N20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A21" s="4" t="s">
+        <v>589</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>181</v>
@@ -2803,10 +3379,16 @@
       <c r="L21" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" thickBot="1">
-      <c r="A22" s="7">
-        <v>21</v>
+      <c r="M21" t="s">
+        <v>469</v>
+      </c>
+      <c r="N21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A22" s="7" t="s">
+        <v>590</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>190</v>
@@ -2841,10 +3423,16 @@
       <c r="L22" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="30" thickBot="1">
-      <c r="A23" s="4">
-        <v>22</v>
+      <c r="M22" t="s">
+        <v>469</v>
+      </c>
+      <c r="N22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A23" s="4" t="s">
+        <v>591</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>199</v>
@@ -2879,10 +3467,16 @@
       <c r="L23" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A24" s="4">
-        <v>23</v>
+      <c r="M23" t="s">
+        <v>469</v>
+      </c>
+      <c r="N23" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A24" s="4" t="s">
+        <v>592</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>207</v>
@@ -2917,10 +3511,16 @@
       <c r="L24" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" thickBot="1">
-      <c r="A25" s="7">
-        <v>24</v>
+      <c r="M24" t="s">
+        <v>469</v>
+      </c>
+      <c r="N24" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A25" s="7" t="s">
+        <v>593</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>216</v>
@@ -2955,10 +3555,16 @@
       <c r="L25" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A26" s="4">
-        <v>25</v>
+      <c r="M25" t="s">
+        <v>466</v>
+      </c>
+      <c r="N25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A26" s="4" t="s">
+        <v>594</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>225</v>
@@ -2993,10 +3599,16 @@
       <c r="L26" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="30" thickBot="1">
-      <c r="A27" s="4">
-        <v>26</v>
+      <c r="M26" t="s">
+        <v>466</v>
+      </c>
+      <c r="N26" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A27" s="4" t="s">
+        <v>595</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>234</v>
@@ -3031,10 +3643,16 @@
       <c r="L27" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="30" thickBot="1">
-      <c r="A28" s="7">
-        <v>27</v>
+      <c r="M27" t="s">
+        <v>469</v>
+      </c>
+      <c r="N27" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A28" s="7" t="s">
+        <v>596</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>243</v>
@@ -3069,10 +3687,16 @@
       <c r="L28" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="30" thickBot="1">
-      <c r="A29" s="4">
-        <v>28</v>
+      <c r="M28" t="s">
+        <v>466</v>
+      </c>
+      <c r="N28" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A29" s="4" t="s">
+        <v>597</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>251</v>
@@ -3107,10 +3731,16 @@
       <c r="L29" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="30" thickBot="1">
-      <c r="A30" s="4">
-        <v>29</v>
+      <c r="M29" t="s">
+        <v>469</v>
+      </c>
+      <c r="N29" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A30" s="4" t="s">
+        <v>598</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>259</v>
@@ -3145,10 +3775,16 @@
       <c r="L30" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="30" thickBot="1">
-      <c r="A31" s="7">
-        <v>30</v>
+      <c r="M30" t="s">
+        <v>469</v>
+      </c>
+      <c r="N30" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A31" s="7" t="s">
+        <v>599</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>268</v>
@@ -3183,10 +3819,16 @@
       <c r="L31" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A32" s="4">
-        <v>31</v>
+      <c r="M31" t="s">
+        <v>469</v>
+      </c>
+      <c r="N31" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A32" s="4" t="s">
+        <v>600</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>276</v>
@@ -3221,10 +3863,16 @@
       <c r="L32" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="30" thickBot="1">
-      <c r="A33" s="4">
-        <v>32</v>
+      <c r="M32" t="s">
+        <v>466</v>
+      </c>
+      <c r="N32" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A33" s="4" t="s">
+        <v>601</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>284</v>
@@ -3259,10 +3907,16 @@
       <c r="L33" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="30" thickBot="1">
-      <c r="A34" s="7">
-        <v>33</v>
+      <c r="M33" t="s">
+        <v>469</v>
+      </c>
+      <c r="N33" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A34" s="7" t="s">
+        <v>602</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>292</v>
@@ -3297,10 +3951,16 @@
       <c r="L34" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="30" thickBot="1">
-      <c r="A35" s="4">
-        <v>34</v>
+      <c r="M34" t="s">
+        <v>469</v>
+      </c>
+      <c r="N34" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A35" s="4" t="s">
+        <v>603</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>301</v>
@@ -3335,10 +3995,16 @@
       <c r="L35" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A36" s="4">
-        <v>35</v>
+      <c r="M35" t="s">
+        <v>469</v>
+      </c>
+      <c r="N35" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A36" s="4" t="s">
+        <v>604</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>310</v>
@@ -3373,10 +4039,16 @@
       <c r="L36" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="30" thickBot="1">
-      <c r="A37" s="7">
-        <v>36</v>
+      <c r="M36" t="s">
+        <v>466</v>
+      </c>
+      <c r="N36" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A37" s="7" t="s">
+        <v>605</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>319</v>
@@ -3411,10 +4083,16 @@
       <c r="L37" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="30" thickBot="1">
-      <c r="A38" s="4">
-        <v>37</v>
+      <c r="M37" t="s">
+        <v>466</v>
+      </c>
+      <c r="N37" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A38" s="4" t="s">
+        <v>606</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>327</v>
@@ -3449,10 +4127,16 @@
       <c r="L38" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="30" thickBot="1">
-      <c r="A39" s="4">
-        <v>38</v>
+      <c r="M38" t="s">
+        <v>469</v>
+      </c>
+      <c r="N38" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A39" s="4" t="s">
+        <v>607</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>336</v>
@@ -3487,10 +4171,16 @@
       <c r="L39" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A40" s="7">
-        <v>39</v>
+      <c r="M39" t="s">
+        <v>466</v>
+      </c>
+      <c r="N39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A40" s="7" t="s">
+        <v>608</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>344</v>
@@ -3525,10 +4215,16 @@
       <c r="L40" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="30" thickBot="1">
-      <c r="A41" s="4">
-        <v>40</v>
+      <c r="M40" t="s">
+        <v>469</v>
+      </c>
+      <c r="N40" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A41" s="4" t="s">
+        <v>609</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>352</v>
@@ -3563,10 +4259,16 @@
       <c r="L41" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="30" thickBot="1">
-      <c r="A42" s="4">
-        <v>41</v>
+      <c r="M41" t="s">
+        <v>466</v>
+      </c>
+      <c r="N41" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A42" s="4" t="s">
+        <v>610</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>360</v>
@@ -3601,10 +4303,16 @@
       <c r="L42" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A43" s="7">
-        <v>42</v>
+      <c r="M42" t="s">
+        <v>469</v>
+      </c>
+      <c r="N42" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A43" s="7" t="s">
+        <v>611</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>368</v>
@@ -3639,10 +4347,16 @@
       <c r="L43" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="30" thickBot="1">
-      <c r="A44" s="4">
-        <v>43</v>
+      <c r="M43" t="s">
+        <v>466</v>
+      </c>
+      <c r="N43" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A44" s="4" t="s">
+        <v>612</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>377</v>
@@ -3677,10 +4391,16 @@
       <c r="L44" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="30" thickBot="1">
-      <c r="A45" s="4">
-        <v>44</v>
+      <c r="M44" t="s">
+        <v>466</v>
+      </c>
+      <c r="N44" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A45" s="4" t="s">
+        <v>613</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>386</v>
@@ -3715,10 +4435,16 @@
       <c r="L45" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A46" s="7">
-        <v>45</v>
+      <c r="M45" t="s">
+        <v>469</v>
+      </c>
+      <c r="N45" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A46" s="7" t="s">
+        <v>614</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>394</v>
@@ -3753,10 +4479,16 @@
       <c r="L46" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="30" thickBot="1">
-      <c r="A47" s="4">
-        <v>46</v>
+      <c r="M46" t="s">
+        <v>466</v>
+      </c>
+      <c r="N46" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="58.5" thickBot="1">
+      <c r="A47" s="4" t="s">
+        <v>615</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>402</v>
@@ -3791,10 +4523,16 @@
       <c r="L47" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A48" s="4">
-        <v>47</v>
+      <c r="M47" t="s">
+        <v>466</v>
+      </c>
+      <c r="N47" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A48" s="4" t="s">
+        <v>616</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>410</v>
@@ -3829,10 +4567,16 @@
       <c r="L48" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="30" thickBot="1">
-      <c r="A49" s="7">
-        <v>48</v>
+      <c r="M48" t="s">
+        <v>466</v>
+      </c>
+      <c r="N48" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A49" s="7" t="s">
+        <v>617</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>418</v>
@@ -3867,10 +4611,16 @@
       <c r="L49" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="30" thickBot="1">
-      <c r="A50" s="4">
-        <v>49</v>
+      <c r="M49" t="s">
+        <v>469</v>
+      </c>
+      <c r="N49" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="44.25" thickBot="1">
+      <c r="A50" s="4" t="s">
+        <v>618</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>427</v>
@@ -3905,8 +4655,14 @@
       <c r="L50" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="30" thickBot="1">
+      <c r="M50" t="s">
+        <v>469</v>
+      </c>
+      <c r="N50" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="44.25" thickBot="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>
